--- a/BackTest/2019-11-26 BackTest WOM.xlsx
+++ b/BackTest/2019-11-26 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>1000</v>
       </c>
       <c r="G2" t="n">
-        <v>-96844.37550000002</v>
+        <v>87.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>2130.9912</v>
       </c>
       <c r="G3" t="n">
-        <v>-96844.37550000002</v>
+        <v>87.70000000000002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>5.7</v>
       </c>
       <c r="G4" t="n">
-        <v>-96838.67550000003</v>
+        <v>87.85000000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>0.3828</v>
       </c>
       <c r="G5" t="n">
-        <v>-96839.05830000003</v>
+        <v>87.85000000000002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>5679.0969</v>
       </c>
       <c r="G6" t="n">
-        <v>-102518.1552</v>
+        <v>87.50000000000003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>3904.5362</v>
       </c>
       <c r="G7" t="n">
-        <v>-102518.1552</v>
+        <v>87.30000000000004</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>1741.7503</v>
       </c>
       <c r="G8" t="n">
-        <v>-100776.4049</v>
+        <v>87.40000000000003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>842.989</v>
       </c>
       <c r="G9" t="n">
-        <v>-101619.3939</v>
+        <v>87.00000000000003</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>2057.011</v>
       </c>
       <c r="G10" t="n">
-        <v>-101619.3939</v>
+        <v>86.50000000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>221.5</v>
       </c>
       <c r="G11" t="n">
-        <v>-101619.3939</v>
+        <v>86.50000000000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>227.4800456100342</v>
       </c>
       <c r="G12" t="n">
-        <v>-101391.91385439</v>
+        <v>87.10000000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>185.7577</v>
       </c>
       <c r="G13" t="n">
-        <v>-101577.67155439</v>
+        <v>87.05000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>14.2423</v>
       </c>
       <c r="G14" t="n">
-        <v>-101577.67155439</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>-101571.67155439</v>
+        <v>87.05</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>2189.860254389966</v>
       </c>
       <c r="G16" t="n">
-        <v>-101571.67155439</v>
+        <v>87.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>5.7</v>
       </c>
       <c r="G17" t="n">
-        <v>-101565.97155439</v>
+        <v>87.75</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>494.3</v>
       </c>
       <c r="G18" t="n">
-        <v>-101565.97155439</v>
+        <v>87.80000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>11206.57630200445</v>
       </c>
       <c r="G19" t="n">
-        <v>-90359.39525238556</v>
+        <v>88.80000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>360.1009</v>
       </c>
       <c r="G20" t="n">
-        <v>-90719.49615238556</v>
+        <v>89</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>12431.563</v>
       </c>
       <c r="G21" t="n">
-        <v>-103151.0591523856</v>
+        <v>88</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>-103145.0591523856</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>5852.584</v>
       </c>
       <c r="G23" t="n">
-        <v>-108997.6431523856</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>-108897.6431523856</v>
+        <v>88.49999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>1440.9052</v>
       </c>
       <c r="G25" t="n">
-        <v>-107456.7379523856</v>
+        <v>89.34999999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>773.8821</v>
       </c>
       <c r="G26" t="n">
-        <v>-108230.6200523856</v>
+        <v>89.34999999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>1.4926</v>
       </c>
       <c r="G27" t="n">
-        <v>-108230.6200523856</v>
+        <v>89.09999999999998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>-98230.62005238557</v>
+        <v>89.54999999999997</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>1156.5891</v>
       </c>
       <c r="G29" t="n">
-        <v>-99387.20915238556</v>
+        <v>89.84999999999998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>2095.6823</v>
       </c>
       <c r="G30" t="n">
-        <v>-97291.52685238556</v>
+        <v>89.74999999999997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>19645.5483</v>
       </c>
       <c r="G31" t="n">
-        <v>-97291.52685238556</v>
+        <v>89.79999999999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>11484.0195</v>
       </c>
       <c r="G32" t="n">
-        <v>-97291.52685238556</v>
+        <v>89.79999999999998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>3517.3187</v>
       </c>
       <c r="G33" t="n">
-        <v>-97291.52685238556</v>
+        <v>89.79999999999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>3289.8263</v>
       </c>
       <c r="G34" t="n">
-        <v>-97291.52685238556</v>
+        <v>89.79999999999998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>1000</v>
       </c>
       <c r="G35" t="n">
-        <v>-97291.52685238556</v>
+        <v>89.79999999999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>-97285.52685238556</v>
+        <v>89.89999999999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>2376.4317</v>
       </c>
       <c r="G37" t="n">
-        <v>-99661.95855238556</v>
+        <v>89.89999999999998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>3051.733</v>
       </c>
       <c r="G38" t="n">
-        <v>-96610.22555238556</v>
+        <v>89.89999999999998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>12772.3513</v>
       </c>
       <c r="G39" t="n">
-        <v>-96610.22555238556</v>
+        <v>89.99999999999997</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,7 +1821,7 @@
         <v>911.9327</v>
       </c>
       <c r="G40" t="n">
-        <v>-97522.15825238556</v>
+        <v>89.89999999999998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,7 +1857,7 @@
         <v>5217.644291141573</v>
       </c>
       <c r="G41" t="n">
-        <v>-92304.51396124398</v>
+        <v>90.09999999999997</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1848,7 +1893,7 @@
         <v>630</v>
       </c>
       <c r="G42" t="n">
-        <v>-91674.51396124398</v>
+        <v>90.44999999999996</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1883,7 +1929,7 @@
         <v>3295.4345</v>
       </c>
       <c r="G43" t="n">
-        <v>-94969.94846124398</v>
+        <v>89.84999999999995</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1918,7 +1965,7 @@
         <v>1097.5509</v>
       </c>
       <c r="G44" t="n">
-        <v>-94969.94846124398</v>
+        <v>89.19999999999996</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1953,7 +2001,7 @@
         <v>88</v>
       </c>
       <c r="G45" t="n">
-        <v>-94881.94846124398</v>
+        <v>89.69999999999996</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1988,7 +2037,7 @@
         <v>372.0393</v>
       </c>
       <c r="G46" t="n">
-        <v>-95253.98776124399</v>
+        <v>89.54999999999998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,7 +2073,7 @@
         <v>1260</v>
       </c>
       <c r="G47" t="n">
-        <v>-93993.98776124399</v>
+        <v>89.54999999999998</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,7 +2109,7 @@
         <v>3936.522547058823</v>
       </c>
       <c r="G48" t="n">
-        <v>-97930.51030830281</v>
+        <v>90.14999999999996</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,20 +2145,25 @@
         <v>11699.80365294118</v>
       </c>
       <c r="G49" t="n">
-        <v>-97930.51030830281</v>
+        <v>90.09999999999997</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="K49" t="n">
+        <v>90.09999999999999</v>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2128,7 +2185,7 @@
         <v>1183.3669</v>
       </c>
       <c r="G50" t="n">
-        <v>-96747.14340830281</v>
+        <v>90.54999999999997</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,11 +2194,18 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,7 +2227,7 @@
         <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>-96741.14340830281</v>
+        <v>91.04999999999997</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,11 +2236,18 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2198,7 +2269,7 @@
         <v>94</v>
       </c>
       <c r="G52" t="n">
-        <v>-96741.14340830281</v>
+        <v>91.09999999999997</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,6 +2283,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2233,7 +2305,7 @@
         <v>6</v>
       </c>
       <c r="G53" t="n">
-        <v>-96735.14340830281</v>
+        <v>91.29999999999997</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,6 +2319,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2268,7 +2341,7 @@
         <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>-96835.14340830281</v>
+        <v>91.39999999999996</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,6 +2355,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,7 +2377,7 @@
         <v>19591.0027</v>
       </c>
       <c r="G55" t="n">
-        <v>-96835.14340830281</v>
+        <v>91.29999999999995</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,6 +2391,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2338,7 +2413,7 @@
         <v>13203.9996359596</v>
       </c>
       <c r="G56" t="n">
-        <v>-83631.14377234322</v>
+        <v>95.14999999999995</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,6 +2427,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,13 +2449,13 @@
         <v>10000</v>
       </c>
       <c r="G57" t="n">
-        <v>-93631.14377234322</v>
+        <v>97.99999999999994</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,6 +2463,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,7 +2485,7 @@
         <v>251.341</v>
       </c>
       <c r="G58" t="n">
-        <v>-93882.48477234322</v>
+        <v>96.49999999999994</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,6 +2499,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2443,13 +2521,13 @@
         <v>304.2332</v>
       </c>
       <c r="G59" t="n">
-        <v>-94186.71797234322</v>
+        <v>94.94999999999993</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2457,6 +2535,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2478,7 +2557,7 @@
         <v>754.4056</v>
       </c>
       <c r="G60" t="n">
-        <v>-94941.12357234322</v>
+        <v>93.14999999999992</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,6 +2571,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2513,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="G61" t="n">
-        <v>-94935.12357234322</v>
+        <v>93.64999999999991</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,6 +2607,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2548,7 +2629,7 @@
         <v>500</v>
       </c>
       <c r="G62" t="n">
-        <v>-95435.12357234322</v>
+        <v>94.7499999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,6 +2643,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2583,7 +2665,7 @@
         <v>500</v>
       </c>
       <c r="G63" t="n">
-        <v>-95935.12357234322</v>
+        <v>94.29999999999988</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,6 +2679,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2618,7 +2701,7 @@
         <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>-95929.12357234322</v>
+        <v>94.44999999999989</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,6 +2715,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2653,13 +2737,13 @@
         <v>736.4056</v>
       </c>
       <c r="G65" t="n">
-        <v>-95929.12357234322</v>
+        <v>94.89999999999989</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2667,6 +2751,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2688,13 +2773,13 @@
         <v>251.341</v>
       </c>
       <c r="G66" t="n">
-        <v>-96180.46457234322</v>
+        <v>93.94999999999989</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2702,6 +2787,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,7 +2809,7 @@
         <v>6</v>
       </c>
       <c r="G67" t="n">
-        <v>-96174.46457234322</v>
+        <v>93.84999999999989</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,6 +2823,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2758,7 +2845,7 @@
         <v>245.341</v>
       </c>
       <c r="G68" t="n">
-        <v>-96174.46457234322</v>
+        <v>94.6999999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,6 +2859,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2793,7 +2881,7 @@
         <v>304.2332</v>
       </c>
       <c r="G69" t="n">
-        <v>-96174.46457234322</v>
+        <v>94.6999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,6 +2895,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2828,13 +2917,13 @@
         <v>500</v>
       </c>
       <c r="G70" t="n">
-        <v>-96174.46457234322</v>
+        <v>94.6999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2842,6 +2931,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2863,7 +2953,7 @@
         <v>1984.3566</v>
       </c>
       <c r="G71" t="n">
-        <v>-96174.46457234322</v>
+        <v>94.6999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,6 +2967,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2898,13 +2989,13 @@
         <v>6</v>
       </c>
       <c r="G72" t="n">
-        <v>-96168.46457234322</v>
+        <v>94.84999999999991</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2912,6 +3003,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2933,7 +3025,7 @@
         <v>2989.0125</v>
       </c>
       <c r="G73" t="n">
-        <v>-96168.46457234322</v>
+        <v>94.99999999999991</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,6 +3039,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2968,7 +3061,7 @@
         <v>7504.9875</v>
       </c>
       <c r="G74" t="n">
-        <v>-96168.46457234322</v>
+        <v>94.99999999999991</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,6 +3075,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3003,7 +3097,7 @@
         <v>6</v>
       </c>
       <c r="G75" t="n">
-        <v>-96162.46457234322</v>
+        <v>95.24999999999991</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,6 +3111,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3038,13 +3133,13 @@
         <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>-96162.46457234322</v>
+        <v>95.49999999999991</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3052,6 +3147,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3073,7 +3169,7 @@
         <v>73.864</v>
       </c>
       <c r="G77" t="n">
-        <v>-96236.32857234322</v>
+        <v>95.24999999999991</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,6 +3183,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3108,7 +3205,7 @@
         <v>122.4719</v>
       </c>
       <c r="G78" t="n">
-        <v>-96358.80047234322</v>
+        <v>93.84999999999991</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,6 +3219,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3143,13 +3241,13 @@
         <v>500</v>
       </c>
       <c r="G79" t="n">
-        <v>-96858.80047234322</v>
+        <v>92.49999999999991</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,6 +3255,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3178,7 +3277,7 @@
         <v>3206.971</v>
       </c>
       <c r="G80" t="n">
-        <v>-100065.7714723432</v>
+        <v>92.14999999999992</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,6 +3291,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3213,13 +3313,13 @@
         <v>19291.3333</v>
       </c>
       <c r="G81" t="n">
-        <v>-119357.1047723432</v>
+        <v>91.4499999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3227,6 +3327,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3248,7 +3349,7 @@
         <v>6</v>
       </c>
       <c r="G82" t="n">
-        <v>-119351.1047723432</v>
+        <v>92.09999999999991</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,6 +3363,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3283,13 +3385,13 @@
         <v>6</v>
       </c>
       <c r="G83" t="n">
-        <v>-119345.1047723432</v>
+        <v>93.7499999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3297,6 +3399,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3318,13 +3421,13 @@
         <v>19.4287</v>
       </c>
       <c r="G84" t="n">
-        <v>-119364.5334723432</v>
+        <v>92.64999999999989</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3332,6 +3435,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3353,13 +3457,13 @@
         <v>8</v>
       </c>
       <c r="G85" t="n">
-        <v>-119356.5334723432</v>
+        <v>91.14999999999989</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3367,6 +3471,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3388,24 +3493,21 @@
         <v>6</v>
       </c>
       <c r="G86" t="n">
-        <v>-119350.5334723432</v>
+        <v>91.2499999999999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K86" t="n">
-        <v>91.2</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3427,7 +3529,7 @@
         <v>6</v>
       </c>
       <c r="G87" t="n">
-        <v>-119344.5334723432</v>
+        <v>92.59999999999991</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3439,16 +3541,13 @@
         <v>91.3</v>
       </c>
       <c r="K87" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>91.3</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3470,17 +3569,17 @@
         <v>6</v>
       </c>
       <c r="G88" t="n">
-        <v>-119350.5334723432</v>
+        <v>92.64999999999989</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3490,6 +3589,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3511,24 +3611,29 @@
         <v>6</v>
       </c>
       <c r="G89" t="n">
-        <v>-119344.5334723432</v>
+        <v>92.64999999999991</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
         <v>91.40000000000001</v>
       </c>
       <c r="K89" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
+        <v>91.3</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3550,26 +3655,21 @@
         <v>1443.7279</v>
       </c>
       <c r="G90" t="n">
-        <v>-120788.2613723432</v>
+        <v>92.69999999999992</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3591,7 +3691,7 @@
         <v>30</v>
       </c>
       <c r="G91" t="n">
-        <v>-120758.2613723432</v>
+        <v>92.59999999999992</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3600,17 +3700,12 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3632,7 +3727,7 @@
         <v>746.107</v>
       </c>
       <c r="G92" t="n">
-        <v>-120758.2613723432</v>
+        <v>93.69999999999993</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3646,6 +3741,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3667,13 +3763,13 @@
         <v>700</v>
       </c>
       <c r="G93" t="n">
-        <v>-120058.2613723432</v>
+        <v>93.79999999999993</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3681,6 +3777,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3702,7 +3799,7 @@
         <v>700</v>
       </c>
       <c r="G94" t="n">
-        <v>-120058.2613723432</v>
+        <v>93.89999999999995</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3716,6 +3813,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3737,13 +3835,13 @@
         <v>1014.2093</v>
       </c>
       <c r="G95" t="n">
-        <v>-119044.0520723432</v>
+        <v>93.94999999999995</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3751,6 +3849,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3772,13 +3871,13 @@
         <v>164.9291</v>
       </c>
       <c r="G96" t="n">
-        <v>-119044.0520723432</v>
+        <v>93.99999999999993</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3786,6 +3885,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3807,20 +3907,27 @@
         <v>28</v>
       </c>
       <c r="G97" t="n">
-        <v>-119072.0520723432</v>
+        <v>93.14999999999992</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>94</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3842,20 +3949,25 @@
         <v>577.7101</v>
       </c>
       <c r="G98" t="n">
-        <v>-119649.7621723432</v>
+        <v>92.14999999999992</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3877,20 +3989,25 @@
         <v>6.2645</v>
       </c>
       <c r="G99" t="n">
-        <v>-119643.4976723432</v>
+        <v>92.14999999999992</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3912,7 +4029,7 @@
         <v>6</v>
       </c>
       <c r="G100" t="n">
-        <v>-119637.4976723432</v>
+        <v>93.04999999999993</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -3923,13 +4040,16 @@
       <c r="J100" t="n">
         <v>92.3</v>
       </c>
-      <c r="K100" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3951,28 +4071,25 @@
         <v>3006</v>
       </c>
       <c r="G101" t="n">
-        <v>-116631.4976723432</v>
+        <v>93.99999999999991</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="K101" t="n">
-        <v>92.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3994,26 +4111,25 @@
         <v>10.62699256110521</v>
       </c>
       <c r="G102" t="n">
-        <v>-116642.1246649043</v>
+        <v>94.14999999999989</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>92.3</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4035,20 +4151,25 @@
         <v>3462.6061</v>
       </c>
       <c r="G103" t="n">
-        <v>-120104.7307649043</v>
+        <v>93.4499999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4070,7 +4191,7 @@
         <v>2581.1801</v>
       </c>
       <c r="G104" t="n">
-        <v>-122685.9108649043</v>
+        <v>92.7499999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4080,10 +4201,15 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4105,7 +4231,7 @@
         <v>547.0864</v>
       </c>
       <c r="G105" t="n">
-        <v>-122685.9108649043</v>
+        <v>92.6999999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4115,10 +4241,15 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4140,7 +4271,7 @@
         <v>8688.9503</v>
       </c>
       <c r="G106" t="n">
-        <v>-131374.8611649043</v>
+        <v>92.54999999999993</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4150,10 +4281,15 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4175,7 +4311,7 @@
         <v>5.7</v>
       </c>
       <c r="G107" t="n">
-        <v>-131369.1611649043</v>
+        <v>92.99999999999991</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4185,10 +4321,15 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4210,19 +4351,24 @@
         <v>17438.8257</v>
       </c>
       <c r="G108" t="n">
-        <v>-148807.9868649043</v>
+        <v>92.84999999999989</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1.151162790697674</v>
       </c>
     </row>
     <row r="109">
@@ -4245,13 +4391,13 @@
         <v>7805.6672</v>
       </c>
       <c r="G109" t="n">
-        <v>-156613.6540649043</v>
+        <v>91.7499999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4259,6 +4405,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4280,20 +4427,27 @@
         <v>29689.6886</v>
       </c>
       <c r="G110" t="n">
-        <v>-126923.9654649044</v>
+        <v>91.9999999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>91.40000000000001</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4315,20 +4469,25 @@
         <v>3481.4218</v>
       </c>
       <c r="G111" t="n">
-        <v>-123442.5436649044</v>
+        <v>93.14999999999991</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4350,20 +4509,25 @@
         <v>1839.4522</v>
       </c>
       <c r="G112" t="n">
-        <v>-121603.0914649044</v>
+        <v>93.7499999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4385,20 +4549,25 @@
         <v>2.7</v>
       </c>
       <c r="G113" t="n">
-        <v>-121605.7914649044</v>
+        <v>93.64999999999989</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4420,24 +4589,25 @@
         <v>6</v>
       </c>
       <c r="G114" t="n">
-        <v>-121611.7914649044</v>
+        <v>92.39999999999989</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="K114" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="L114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4459,7 +4629,7 @@
         <v>3</v>
       </c>
       <c r="G115" t="n">
-        <v>-121608.7914649044</v>
+        <v>91.84999999999991</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4470,17 +4640,16 @@
       <c r="J115" t="n">
         <v>91.3</v>
       </c>
-      <c r="K115" t="n">
-        <v>93.5</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4502,7 +4671,7 @@
         <v>10972.6744</v>
       </c>
       <c r="G116" t="n">
-        <v>-132581.4658649043</v>
+        <v>90.64999999999989</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -4513,17 +4682,16 @@
       <c r="J116" t="n">
         <v>92.40000000000001</v>
       </c>
-      <c r="K116" t="n">
-        <v>93.5</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4545,7 +4713,7 @@
         <v>9695.1247</v>
       </c>
       <c r="G117" t="n">
-        <v>-122886.3411649043</v>
+        <v>90.54999999999988</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -4556,9 +4724,7 @@
       <c r="J117" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="K117" t="n">
-        <v>93.5</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4567,6 +4733,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4588,7 +4755,7 @@
         <v>8697.367899999999</v>
       </c>
       <c r="G118" t="n">
-        <v>-131583.7090649043</v>
+        <v>90.59999999999989</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4599,9 +4766,7 @@
       <c r="J118" t="n">
         <v>92.2</v>
       </c>
-      <c r="K118" t="n">
-        <v>93.5</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,6 +4775,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4631,7 +4797,7 @@
         <v>6</v>
       </c>
       <c r="G119" t="n">
-        <v>-131577.7090649043</v>
+        <v>90.49999999999991</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -4642,9 +4808,7 @@
       <c r="J119" t="n">
         <v>89</v>
       </c>
-      <c r="K119" t="n">
-        <v>93.5</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4653,6 +4817,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4674,7 +4839,7 @@
         <v>7695.5314</v>
       </c>
       <c r="G120" t="n">
-        <v>-139273.2404649043</v>
+        <v>91.69999999999993</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4685,9 +4850,7 @@
       <c r="J120" t="n">
         <v>92</v>
       </c>
-      <c r="K120" t="n">
-        <v>93.5</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4696,6 +4859,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4717,7 +4881,7 @@
         <v>5276.0174</v>
       </c>
       <c r="G121" t="n">
-        <v>-144549.2578649044</v>
+        <v>90.44999999999993</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -4728,9 +4892,7 @@
       <c r="J121" t="n">
         <v>91.40000000000001</v>
       </c>
-      <c r="K121" t="n">
-        <v>93.5</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4739,6 +4901,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4760,7 +4923,7 @@
         <v>6</v>
       </c>
       <c r="G122" t="n">
-        <v>-144543.2578649044</v>
+        <v>90.39999999999993</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -4771,9 +4934,7 @@
       <c r="J122" t="n">
         <v>89.5</v>
       </c>
-      <c r="K122" t="n">
-        <v>93.5</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4782,6 +4943,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-26 BackTest WOM.xlsx
+++ b/BackTest/2019-11-26 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>87.7</v>
+        <v>88.5</v>
       </c>
       <c r="D2" t="n">
-        <v>87.7</v>
+        <v>88.5</v>
       </c>
       <c r="E2" t="n">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>1000</v>
+        <v>762.8122</v>
       </c>
       <c r="G2" t="n">
-        <v>87.7</v>
+        <v>-78251.67700000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -486,10 +486,10 @@
         <v>87.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2130.9912</v>
+        <v>1038.9849</v>
       </c>
       <c r="G3" t="n">
-        <v>87.70000000000002</v>
+        <v>-79290.66190000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>88</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>88</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>88</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>5.7</v>
+        <v>2910.5359</v>
       </c>
       <c r="G4" t="n">
-        <v>87.85000000000002</v>
+        <v>-82201.19780000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="C5" t="n">
-        <v>87.7</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="E5" t="n">
-        <v>87.7</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3828</v>
+        <v>5673.0181</v>
       </c>
       <c r="G5" t="n">
-        <v>87.85000000000002</v>
+        <v>-87874.21590000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87.3</v>
+        <v>87.7</v>
       </c>
       <c r="C6" t="n">
-        <v>87.3</v>
+        <v>87.7</v>
       </c>
       <c r="D6" t="n">
-        <v>87.3</v>
+        <v>87.7</v>
       </c>
       <c r="E6" t="n">
-        <v>87.2</v>
+        <v>87.7</v>
       </c>
       <c r="F6" t="n">
-        <v>5679.0969</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>87.50000000000003</v>
+        <v>-87869.21590000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>87.2</v>
+        <v>87.7</v>
       </c>
       <c r="C7" t="n">
-        <v>87.3</v>
+        <v>87.7</v>
       </c>
       <c r="D7" t="n">
-        <v>87.3</v>
+        <v>87.7</v>
       </c>
       <c r="E7" t="n">
-        <v>87.2</v>
+        <v>87.7</v>
       </c>
       <c r="F7" t="n">
-        <v>3904.5362</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="n">
-        <v>87.30000000000004</v>
+        <v>-87869.21590000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>87.5</v>
+        <v>87.2</v>
       </c>
       <c r="D8" t="n">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>87.5</v>
+        <v>87.2</v>
       </c>
       <c r="F8" t="n">
-        <v>1741.7503</v>
+        <v>2609.4534</v>
       </c>
       <c r="G8" t="n">
-        <v>87.40000000000003</v>
+        <v>-90478.66930000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>86.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>86.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>86.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>842.989</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>87.00000000000003</v>
+        <v>-90578.66930000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>86.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>86.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>86.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>86.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>2057.011</v>
+        <v>200</v>
       </c>
       <c r="G10" t="n">
-        <v>86.50000000000003</v>
+        <v>-90578.66930000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -765,19 +765,19 @@
         <v>87.7</v>
       </c>
       <c r="C11" t="n">
-        <v>86.5</v>
+        <v>87.7</v>
       </c>
       <c r="D11" t="n">
         <v>87.7</v>
       </c>
       <c r="E11" t="n">
-        <v>86</v>
+        <v>87.7</v>
       </c>
       <c r="F11" t="n">
-        <v>221.5</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>86.50000000000003</v>
+        <v>-90575.66930000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>87.7</v>
+        <v>87</v>
       </c>
       <c r="C12" t="n">
-        <v>87.7</v>
+        <v>87</v>
       </c>
       <c r="D12" t="n">
-        <v>87.7</v>
+        <v>87</v>
       </c>
       <c r="E12" t="n">
-        <v>87.7</v>
+        <v>87</v>
       </c>
       <c r="F12" t="n">
-        <v>227.4800456100342</v>
+        <v>1667.6847</v>
       </c>
       <c r="G12" t="n">
-        <v>87.10000000000002</v>
+        <v>-92243.35400000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>86.40000000000001</v>
+        <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>86.40000000000001</v>
+        <v>87</v>
       </c>
       <c r="D13" t="n">
-        <v>86.40000000000001</v>
+        <v>87</v>
       </c>
       <c r="E13" t="n">
-        <v>86.40000000000001</v>
+        <v>87</v>
       </c>
       <c r="F13" t="n">
-        <v>185.7577</v>
+        <v>1103.6377</v>
       </c>
       <c r="G13" t="n">
-        <v>87.05000000000001</v>
+        <v>-92243.35400000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>86.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>86.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>86.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>86.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>14.2423</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>86.40000000000001</v>
+        <v>-92240.35400000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>87.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>87.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>87.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>87.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>2508.8687</v>
       </c>
       <c r="G15" t="n">
-        <v>87.05</v>
+        <v>-94749.22270000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>87.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>87.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>2189.860254389966</v>
+        <v>3103.2721</v>
       </c>
       <c r="G16" t="n">
-        <v>87.7</v>
+        <v>-91645.95060000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,31 +978,35 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>87.8</v>
+        <v>86.8</v>
       </c>
       <c r="C17" t="n">
-        <v>87.8</v>
+        <v>86.8</v>
       </c>
       <c r="D17" t="n">
-        <v>87.8</v>
+        <v>86.8</v>
       </c>
       <c r="E17" t="n">
-        <v>87.8</v>
+        <v>86.8</v>
       </c>
       <c r="F17" t="n">
-        <v>5.7</v>
+        <v>1389.2489</v>
       </c>
       <c r="G17" t="n">
-        <v>87.75</v>
+        <v>-93035.19950000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="K17" t="n">
+        <v>87.59999999999999</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
@@ -1014,32 +1018,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>87.8</v>
+        <v>86.7</v>
       </c>
       <c r="C18" t="n">
-        <v>87.8</v>
+        <v>86.7</v>
       </c>
       <c r="D18" t="n">
-        <v>87.8</v>
+        <v>86.7</v>
       </c>
       <c r="E18" t="n">
-        <v>87.8</v>
+        <v>86.7</v>
       </c>
       <c r="F18" t="n">
-        <v>494.3</v>
+        <v>206.6735</v>
       </c>
       <c r="G18" t="n">
-        <v>87.80000000000001</v>
+        <v>-93241.87300000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1062,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>88</v>
+        <v>86.8</v>
       </c>
       <c r="C19" t="n">
-        <v>89.8</v>
+        <v>86.7</v>
       </c>
       <c r="D19" t="n">
-        <v>89.8</v>
+        <v>86.8</v>
       </c>
       <c r="E19" t="n">
-        <v>88</v>
+        <v>86.7</v>
       </c>
       <c r="F19" t="n">
-        <v>11206.57630200445</v>
+        <v>1208.1377</v>
       </c>
       <c r="G19" t="n">
-        <v>88.80000000000001</v>
+        <v>-93241.87300000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1106,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>88.2</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>88.2</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>88.2</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>88.2</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>360.1009</v>
+        <v>1370.0675</v>
       </c>
       <c r="G20" t="n">
-        <v>89</v>
+        <v>-94611.94050000003</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1150,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>88</v>
+        <v>86.5</v>
       </c>
       <c r="C21" t="n">
-        <v>87.8</v>
+        <v>86.5</v>
       </c>
       <c r="D21" t="n">
-        <v>88</v>
+        <v>86.5</v>
       </c>
       <c r="E21" t="n">
-        <v>87.8</v>
+        <v>86.5</v>
       </c>
       <c r="F21" t="n">
-        <v>12431.563</v>
+        <v>5600.8621</v>
       </c>
       <c r="G21" t="n">
-        <v>88</v>
+        <v>-100212.8026</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1194,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>88.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="C22" t="n">
-        <v>88.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="D22" t="n">
-        <v>88.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="E22" t="n">
-        <v>88.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="G22" t="n">
-        <v>88.34999999999999</v>
+        <v>-100207.0026</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1238,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>88</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>87.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="D23" t="n">
-        <v>88</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>87.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="F23" t="n">
-        <v>5852.584</v>
+        <v>7659.0218</v>
       </c>
       <c r="G23" t="n">
-        <v>88.40000000000001</v>
+        <v>-107866.0244</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1282,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>89.09999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>89.09999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>89.09999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>89.09999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>5.8</v>
       </c>
       <c r="G24" t="n">
-        <v>88.49999999999999</v>
+        <v>-107860.2244</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>86</v>
+      </c>
+      <c r="K24" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1326,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>89.5</v>
+        <v>87.3</v>
       </c>
       <c r="C25" t="n">
-        <v>89.59999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="D25" t="n">
-        <v>89.59999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="E25" t="n">
-        <v>89.5</v>
+        <v>87.3</v>
       </c>
       <c r="F25" t="n">
-        <v>1440.9052</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>89.34999999999998</v>
+        <v>-107865.2244</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="K25" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1370,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>89.59999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="C26" t="n">
-        <v>89.09999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="D26" t="n">
-        <v>89.59999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="E26" t="n">
-        <v>89.09999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="F26" t="n">
-        <v>773.8821</v>
+        <v>170.4029</v>
       </c>
       <c r="G26" t="n">
-        <v>89.34999999999998</v>
+        <v>-107865.2244</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1414,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>89.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>89.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>89.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>89.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>1.4926</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>89.09999999999998</v>
+        <v>-106865.2244</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1458,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>89.09999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="C28" t="n">
-        <v>90</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>90</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>89.09999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="F28" t="n">
-        <v>10000</v>
+        <v>304</v>
       </c>
       <c r="G28" t="n">
-        <v>89.54999999999997</v>
+        <v>-106865.2244</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K28" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1502,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>89.7</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>89.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>89.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>89.7</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>1156.5891</v>
+        <v>9920.848900000001</v>
       </c>
       <c r="G29" t="n">
-        <v>89.84999999999998</v>
+        <v>-96944.37550000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K29" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1546,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="C30" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="D30" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="E30" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="F30" t="n">
-        <v>2095.6823</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>89.74999999999997</v>
+        <v>-96844.37550000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="K30" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1590,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="C31" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="D31" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="E31" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="F31" t="n">
-        <v>19645.5483</v>
+        <v>1000</v>
       </c>
       <c r="G31" t="n">
-        <v>89.79999999999998</v>
+        <v>-96844.37550000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1614,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1632,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="C32" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="D32" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="E32" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="F32" t="n">
-        <v>11484.0195</v>
+        <v>2130.9912</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79999999999998</v>
+        <v>-96844.37550000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1656,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1674,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>89.8</v>
+        <v>88</v>
       </c>
       <c r="C33" t="n">
-        <v>89.8</v>
+        <v>88</v>
       </c>
       <c r="D33" t="n">
-        <v>89.8</v>
+        <v>88</v>
       </c>
       <c r="E33" t="n">
-        <v>89.8</v>
+        <v>88</v>
       </c>
       <c r="F33" t="n">
-        <v>3517.3187</v>
+        <v>5.7</v>
       </c>
       <c r="G33" t="n">
-        <v>89.79999999999998</v>
+        <v>-96838.67550000003</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1698,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1716,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="C34" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="D34" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="E34" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="F34" t="n">
-        <v>3289.8263</v>
+        <v>0.3828</v>
       </c>
       <c r="G34" t="n">
-        <v>89.79999999999998</v>
+        <v>-96839.05830000003</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1740,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1758,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>89.8</v>
+        <v>87.3</v>
       </c>
       <c r="C35" t="n">
-        <v>89.8</v>
+        <v>87.3</v>
       </c>
       <c r="D35" t="n">
-        <v>89.8</v>
+        <v>87.3</v>
       </c>
       <c r="E35" t="n">
-        <v>89.8</v>
+        <v>87.2</v>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>5679.0969</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79999999999998</v>
+        <v>-102518.1552</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1800,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>90</v>
+        <v>87.2</v>
       </c>
       <c r="C36" t="n">
-        <v>90</v>
+        <v>87.3</v>
       </c>
       <c r="D36" t="n">
-        <v>90</v>
+        <v>87.3</v>
       </c>
       <c r="E36" t="n">
-        <v>90</v>
+        <v>87.2</v>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>3904.5362</v>
       </c>
       <c r="G36" t="n">
-        <v>89.89999999999998</v>
+        <v>-102518.1552</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1824,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1842,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>89.8</v>
+        <v>87.5</v>
       </c>
       <c r="C37" t="n">
-        <v>89.8</v>
+        <v>87.5</v>
       </c>
       <c r="D37" t="n">
-        <v>89.8</v>
+        <v>87.5</v>
       </c>
       <c r="E37" t="n">
-        <v>89.8</v>
+        <v>87.5</v>
       </c>
       <c r="F37" t="n">
-        <v>2376.4317</v>
+        <v>1741.7503</v>
       </c>
       <c r="G37" t="n">
-        <v>89.89999999999998</v>
+        <v>-100776.4049</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1886,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>89.8</v>
+        <v>86.5</v>
       </c>
       <c r="C38" t="n">
-        <v>90</v>
+        <v>86.5</v>
       </c>
       <c r="D38" t="n">
-        <v>90</v>
+        <v>86.5</v>
       </c>
       <c r="E38" t="n">
-        <v>89.8</v>
+        <v>86.5</v>
       </c>
       <c r="F38" t="n">
-        <v>3051.733</v>
+        <v>842.989</v>
       </c>
       <c r="G38" t="n">
-        <v>89.89999999999998</v>
+        <v>-101619.3939</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +1930,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>90</v>
+        <v>86.2</v>
       </c>
       <c r="C39" t="n">
-        <v>90</v>
+        <v>86.5</v>
       </c>
       <c r="D39" t="n">
-        <v>90</v>
+        <v>86.5</v>
       </c>
       <c r="E39" t="n">
-        <v>90</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>12772.3513</v>
+        <v>2057.011</v>
       </c>
       <c r="G39" t="n">
-        <v>89.99999999999997</v>
+        <v>-101619.3939</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +1974,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="C40" t="n">
-        <v>89.8</v>
+        <v>86.5</v>
       </c>
       <c r="D40" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="E40" t="n">
-        <v>89.8</v>
+        <v>86</v>
       </c>
       <c r="F40" t="n">
-        <v>911.9327</v>
+        <v>221.5</v>
       </c>
       <c r="G40" t="n">
-        <v>89.89999999999998</v>
+        <v>-101619.3939</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +2018,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="C41" t="n">
-        <v>90.40000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="D41" t="n">
-        <v>90.40000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="E41" t="n">
-        <v>89.8</v>
+        <v>87.7</v>
       </c>
       <c r="F41" t="n">
-        <v>5217.644291141573</v>
+        <v>227.4800456100342</v>
       </c>
       <c r="G41" t="n">
-        <v>90.09999999999997</v>
+        <v>-101391.91385439</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2062,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>90.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>90.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>90.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>90.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>630</v>
+        <v>185.7577</v>
       </c>
       <c r="G42" t="n">
-        <v>90.44999999999996</v>
+        <v>-101577.67155439</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="K42" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +2106,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>89.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>89.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>89.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>89.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>3295.4345</v>
+        <v>14.2423</v>
       </c>
       <c r="G43" t="n">
-        <v>89.84999999999995</v>
+        <v>-101577.67155439</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="K43" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,32 +2150,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89.2</v>
+        <v>87.7</v>
       </c>
       <c r="C44" t="n">
-        <v>89.2</v>
+        <v>87.7</v>
       </c>
       <c r="D44" t="n">
-        <v>89.2</v>
+        <v>87.7</v>
       </c>
       <c r="E44" t="n">
-        <v>89.2</v>
+        <v>87.7</v>
       </c>
       <c r="F44" t="n">
-        <v>1097.5509</v>
+        <v>6</v>
       </c>
       <c r="G44" t="n">
-        <v>89.19999999999996</v>
+        <v>-101571.67155439</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="K44" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,32 +2194,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>90.2</v>
+        <v>87.7</v>
       </c>
       <c r="C45" t="n">
-        <v>90.2</v>
+        <v>87.7</v>
       </c>
       <c r="D45" t="n">
-        <v>90.2</v>
+        <v>87.7</v>
       </c>
       <c r="E45" t="n">
-        <v>90.2</v>
+        <v>87.7</v>
       </c>
       <c r="F45" t="n">
-        <v>88</v>
+        <v>2189.860254389966</v>
       </c>
       <c r="G45" t="n">
-        <v>89.69999999999996</v>
+        <v>-101571.67155439</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="K45" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2238,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>88.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="C46" t="n">
-        <v>88.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="D46" t="n">
-        <v>88.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="E46" t="n">
-        <v>88.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="F46" t="n">
-        <v>372.0393</v>
+        <v>5.7</v>
       </c>
       <c r="G46" t="n">
-        <v>89.54999999999998</v>
+        <v>-101565.97155439</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2262,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,32 +2280,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>89.3</v>
+        <v>87.8</v>
       </c>
       <c r="C47" t="n">
-        <v>90.2</v>
+        <v>87.8</v>
       </c>
       <c r="D47" t="n">
-        <v>90.2</v>
+        <v>87.8</v>
       </c>
       <c r="E47" t="n">
-        <v>89.3</v>
+        <v>87.8</v>
       </c>
       <c r="F47" t="n">
-        <v>1260</v>
+        <v>494.3</v>
       </c>
       <c r="G47" t="n">
-        <v>89.54999999999998</v>
+        <v>-101565.97155439</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="K47" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,32 +2324,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>89.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="C48" t="n">
-        <v>90.09999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="D48" t="n">
-        <v>90.09999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="E48" t="n">
-        <v>89.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="F48" t="n">
-        <v>3936.522547058823</v>
+        <v>11206.57630200445</v>
       </c>
       <c r="G48" t="n">
-        <v>90.14999999999996</v>
+        <v>-90359.39525238556</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,36 +2368,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>90.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="C49" t="n">
-        <v>90.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="D49" t="n">
-        <v>90.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="E49" t="n">
-        <v>90.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="F49" t="n">
-        <v>11699.80365294118</v>
+        <v>360.1009</v>
       </c>
       <c r="G49" t="n">
-        <v>90.09999999999997</v>
+        <v>-90719.49615238556</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>90.09999999999999</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2170,22 +2410,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>90.2</v>
+        <v>88</v>
       </c>
       <c r="C50" t="n">
-        <v>91</v>
+        <v>87.8</v>
       </c>
       <c r="D50" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E50" t="n">
-        <v>90.2</v>
+        <v>87.8</v>
       </c>
       <c r="F50" t="n">
-        <v>1183.3669</v>
+        <v>12431.563</v>
       </c>
       <c r="G50" t="n">
-        <v>90.54999999999997</v>
+        <v>-103151.0591523856</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2195,11 +2435,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>90.09999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2212,22 +2452,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>91.09999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>91.09999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>91.09999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>91.09999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F51" t="n">
         <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>91.04999999999997</v>
+        <v>-103145.0591523856</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2237,11 +2477,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>90.09999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -2254,22 +2494,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>91.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="C52" t="n">
-        <v>91.09999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>91.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="E52" t="n">
-        <v>91.09999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>94</v>
+        <v>5852.584</v>
       </c>
       <c r="G52" t="n">
-        <v>91.09999999999997</v>
+        <v>-108997.6431523856</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2278,8 +2518,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2290,22 +2536,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>91.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>91.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>91.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>91.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>91.29999999999997</v>
+        <v>-108897.6431523856</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2314,8 +2560,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2326,22 +2578,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>91.3</v>
+        <v>89.5</v>
       </c>
       <c r="C54" t="n">
-        <v>91.3</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>91.3</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>91.3</v>
+        <v>89.5</v>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>1440.9052</v>
       </c>
       <c r="G54" t="n">
-        <v>91.39999999999996</v>
+        <v>-107456.7379523856</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2350,8 +2602,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2362,22 +2620,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>91.3</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>91.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>91.3</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>91.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>19591.0027</v>
+        <v>773.8821</v>
       </c>
       <c r="G55" t="n">
-        <v>91.29999999999995</v>
+        <v>-108230.6200523856</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2386,8 +2644,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2398,22 +2662,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>91.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>99</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>99</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>91.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>13203.9996359596</v>
+        <v>1.4926</v>
       </c>
       <c r="G56" t="n">
-        <v>95.14999999999995</v>
+        <v>-108230.6200523856</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2422,8 +2686,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2434,32 +2704,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>97</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D57" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E57" t="n">
-        <v>97</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F57" t="n">
         <v>10000</v>
       </c>
       <c r="G57" t="n">
-        <v>97.99999999999994</v>
+        <v>-98230.62005238557</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2470,32 +2746,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>96</v>
+        <v>89.7</v>
       </c>
       <c r="C58" t="n">
-        <v>96</v>
+        <v>89.7</v>
       </c>
       <c r="D58" t="n">
-        <v>96</v>
+        <v>89.7</v>
       </c>
       <c r="E58" t="n">
-        <v>96</v>
+        <v>89.7</v>
       </c>
       <c r="F58" t="n">
-        <v>251.341</v>
+        <v>1156.5891</v>
       </c>
       <c r="G58" t="n">
-        <v>96.49999999999994</v>
+        <v>-99387.20915238556</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2506,32 +2788,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>93.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="C59" t="n">
-        <v>93.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="D59" t="n">
-        <v>93.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="E59" t="n">
-        <v>93.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="F59" t="n">
-        <v>304.2332</v>
+        <v>2095.6823</v>
       </c>
       <c r="G59" t="n">
-        <v>94.94999999999993</v>
+        <v>-97291.52685238556</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2542,22 +2830,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>93.2</v>
+        <v>89.8</v>
       </c>
       <c r="C60" t="n">
-        <v>92.40000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="D60" t="n">
-        <v>93.2</v>
+        <v>89.8</v>
       </c>
       <c r="E60" t="n">
-        <v>92.40000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="F60" t="n">
-        <v>754.4056</v>
+        <v>19645.5483</v>
       </c>
       <c r="G60" t="n">
-        <v>93.14999999999992</v>
+        <v>-97291.52685238556</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2566,8 +2854,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2578,22 +2872,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>94.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="C61" t="n">
-        <v>94.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="D61" t="n">
-        <v>94.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="E61" t="n">
-        <v>94.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="F61" t="n">
-        <v>6</v>
+        <v>11484.0195</v>
       </c>
       <c r="G61" t="n">
-        <v>93.64999999999991</v>
+        <v>-97291.52685238556</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2602,8 +2896,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2614,22 +2914,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>94.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="C62" t="n">
-        <v>94.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="D62" t="n">
-        <v>94.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="E62" t="n">
-        <v>94.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="F62" t="n">
-        <v>500</v>
+        <v>3517.3187</v>
       </c>
       <c r="G62" t="n">
-        <v>94.7499999999999</v>
+        <v>-97291.52685238556</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2638,8 +2938,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2650,22 +2956,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>94</v>
+        <v>89.8</v>
       </c>
       <c r="C63" t="n">
-        <v>94</v>
+        <v>89.8</v>
       </c>
       <c r="D63" t="n">
-        <v>94</v>
+        <v>89.8</v>
       </c>
       <c r="E63" t="n">
-        <v>94</v>
+        <v>89.8</v>
       </c>
       <c r="F63" t="n">
-        <v>500</v>
+        <v>3289.8263</v>
       </c>
       <c r="G63" t="n">
-        <v>94.29999999999988</v>
+        <v>-97291.52685238556</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2674,8 +2980,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2686,22 +2998,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>94.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="C64" t="n">
-        <v>94.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="D64" t="n">
-        <v>94.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="E64" t="n">
-        <v>94.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="F64" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="n">
-        <v>94.44999999999989</v>
+        <v>-97291.52685238556</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2710,8 +3022,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2722,32 +3040,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>94.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="C65" t="n">
-        <v>94.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="D65" t="n">
-        <v>94.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="E65" t="n">
-        <v>94.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="F65" t="n">
-        <v>736.4056</v>
+        <v>6</v>
       </c>
       <c r="G65" t="n">
-        <v>94.89999999999989</v>
+        <v>-97285.52685238556</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2758,32 +3082,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>93</v>
+        <v>89.8</v>
       </c>
       <c r="C66" t="n">
-        <v>93</v>
+        <v>89.8</v>
       </c>
       <c r="D66" t="n">
-        <v>93</v>
+        <v>89.8</v>
       </c>
       <c r="E66" t="n">
-        <v>93</v>
+        <v>89.8</v>
       </c>
       <c r="F66" t="n">
-        <v>251.341</v>
+        <v>2376.4317</v>
       </c>
       <c r="G66" t="n">
-        <v>93.94999999999989</v>
+        <v>-99661.95855238556</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2794,22 +3124,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>94.7</v>
+        <v>89.8</v>
       </c>
       <c r="C67" t="n">
-        <v>94.7</v>
+        <v>90</v>
       </c>
       <c r="D67" t="n">
-        <v>94.7</v>
+        <v>90</v>
       </c>
       <c r="E67" t="n">
-        <v>94.7</v>
+        <v>89.8</v>
       </c>
       <c r="F67" t="n">
-        <v>6</v>
+        <v>3051.733</v>
       </c>
       <c r="G67" t="n">
-        <v>93.84999999999989</v>
+        <v>-96610.22555238556</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2818,8 +3148,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2830,22 +3166,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>94.7</v>
+        <v>90</v>
       </c>
       <c r="C68" t="n">
-        <v>94.7</v>
+        <v>90</v>
       </c>
       <c r="D68" t="n">
-        <v>94.7</v>
+        <v>90</v>
       </c>
       <c r="E68" t="n">
-        <v>94.7</v>
+        <v>90</v>
       </c>
       <c r="F68" t="n">
-        <v>245.341</v>
+        <v>12772.3513</v>
       </c>
       <c r="G68" t="n">
-        <v>94.6999999999999</v>
+        <v>-96610.22555238556</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2854,8 +3190,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2866,32 +3208,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>94.7</v>
+        <v>89.8</v>
       </c>
       <c r="C69" t="n">
-        <v>94.7</v>
+        <v>89.8</v>
       </c>
       <c r="D69" t="n">
-        <v>94.7</v>
+        <v>89.8</v>
       </c>
       <c r="E69" t="n">
-        <v>94.7</v>
+        <v>89.8</v>
       </c>
       <c r="F69" t="n">
-        <v>304.2332</v>
+        <v>911.9327</v>
       </c>
       <c r="G69" t="n">
-        <v>94.6999999999999</v>
+        <v>-97522.15825238556</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2902,32 +3250,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>94.7</v>
+        <v>89.8</v>
       </c>
       <c r="C70" t="n">
-        <v>94.7</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>94.7</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>94.7</v>
+        <v>89.8</v>
       </c>
       <c r="F70" t="n">
-        <v>500</v>
+        <v>5217.644291141573</v>
       </c>
       <c r="G70" t="n">
-        <v>94.6999999999999</v>
+        <v>-92304.51396124398</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2938,32 +3292,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>94.7</v>
+        <v>90.2</v>
       </c>
       <c r="C71" t="n">
-        <v>94.7</v>
+        <v>90.5</v>
       </c>
       <c r="D71" t="n">
-        <v>94.7</v>
+        <v>90.5</v>
       </c>
       <c r="E71" t="n">
-        <v>94.7</v>
+        <v>90.2</v>
       </c>
       <c r="F71" t="n">
-        <v>1984.3566</v>
+        <v>630</v>
       </c>
       <c r="G71" t="n">
-        <v>94.6999999999999</v>
+        <v>-91674.51396124398</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2974,32 +3334,38 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>95</v>
+        <v>89.3</v>
       </c>
       <c r="C72" t="n">
-        <v>95</v>
+        <v>89.2</v>
       </c>
       <c r="D72" t="n">
-        <v>95</v>
+        <v>89.3</v>
       </c>
       <c r="E72" t="n">
-        <v>95</v>
+        <v>89.2</v>
       </c>
       <c r="F72" t="n">
-        <v>6</v>
+        <v>3295.4345</v>
       </c>
       <c r="G72" t="n">
-        <v>94.84999999999991</v>
+        <v>-94969.94846124398</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3010,32 +3376,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>95</v>
+        <v>89.2</v>
       </c>
       <c r="C73" t="n">
-        <v>95</v>
+        <v>89.2</v>
       </c>
       <c r="D73" t="n">
-        <v>95</v>
+        <v>89.2</v>
       </c>
       <c r="E73" t="n">
-        <v>95</v>
+        <v>89.2</v>
       </c>
       <c r="F73" t="n">
-        <v>2989.0125</v>
+        <v>1097.5509</v>
       </c>
       <c r="G73" t="n">
-        <v>94.99999999999991</v>
+        <v>-94969.94846124398</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3046,32 +3418,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>95</v>
+        <v>90.2</v>
       </c>
       <c r="C74" t="n">
-        <v>95</v>
+        <v>90.2</v>
       </c>
       <c r="D74" t="n">
-        <v>95</v>
+        <v>90.2</v>
       </c>
       <c r="E74" t="n">
-        <v>95</v>
+        <v>90.2</v>
       </c>
       <c r="F74" t="n">
-        <v>7504.9875</v>
+        <v>88</v>
       </c>
       <c r="G74" t="n">
-        <v>94.99999999999991</v>
+        <v>-94881.94846124398</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3082,32 +3460,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>95.5</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>95.5</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>95.5</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>95.5</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>6</v>
+        <v>372.0393</v>
       </c>
       <c r="G75" t="n">
-        <v>95.24999999999991</v>
+        <v>-95253.98776124399</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3118,32 +3502,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>95.5</v>
+        <v>89.3</v>
       </c>
       <c r="C76" t="n">
-        <v>95.5</v>
+        <v>90.2</v>
       </c>
       <c r="D76" t="n">
-        <v>95.5</v>
+        <v>90.2</v>
       </c>
       <c r="E76" t="n">
-        <v>95.5</v>
+        <v>89.3</v>
       </c>
       <c r="F76" t="n">
-        <v>50</v>
+        <v>1260</v>
       </c>
       <c r="G76" t="n">
-        <v>95.49999999999991</v>
+        <v>-93993.98776124399</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3154,32 +3544,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>95</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>95</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>95</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>95</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>73.864</v>
+        <v>3936.522547058823</v>
       </c>
       <c r="G77" t="n">
-        <v>95.24999999999991</v>
+        <v>-97930.51030830281</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3190,32 +3586,38 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>93.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>92.7</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>93.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>92.7</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>122.4719</v>
+        <v>11699.80365294118</v>
       </c>
       <c r="G78" t="n">
-        <v>93.84999999999991</v>
+        <v>-97930.51030830281</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3226,32 +3628,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>92.3</v>
+        <v>90.2</v>
       </c>
       <c r="C79" t="n">
-        <v>92.3</v>
+        <v>91</v>
       </c>
       <c r="D79" t="n">
-        <v>92.3</v>
+        <v>91</v>
       </c>
       <c r="E79" t="n">
-        <v>92.3</v>
+        <v>90.2</v>
       </c>
       <c r="F79" t="n">
-        <v>500</v>
+        <v>1183.3669</v>
       </c>
       <c r="G79" t="n">
-        <v>92.49999999999991</v>
+        <v>-96747.14340830281</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3262,22 +3670,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>92</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>92</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>92</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>92</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>3206.971</v>
+        <v>6</v>
       </c>
       <c r="G80" t="n">
-        <v>92.14999999999992</v>
+        <v>-96741.14340830281</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3286,8 +3694,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3298,32 +3712,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>92.09999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>90.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>92.09999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>90.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>19291.3333</v>
+        <v>94</v>
       </c>
       <c r="G81" t="n">
-        <v>91.4499999999999</v>
+        <v>-96741.14340830281</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3334,22 +3754,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>93.3</v>
+        <v>91.5</v>
       </c>
       <c r="C82" t="n">
-        <v>93.3</v>
+        <v>91.5</v>
       </c>
       <c r="D82" t="n">
-        <v>93.3</v>
+        <v>91.5</v>
       </c>
       <c r="E82" t="n">
-        <v>93.3</v>
+        <v>91.5</v>
       </c>
       <c r="F82" t="n">
         <v>6</v>
       </c>
       <c r="G82" t="n">
-        <v>92.09999999999991</v>
+        <v>-96735.14340830281</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3358,8 +3778,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3370,32 +3796,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>94.2</v>
+        <v>91.3</v>
       </c>
       <c r="C83" t="n">
-        <v>94.2</v>
+        <v>91.3</v>
       </c>
       <c r="D83" t="n">
-        <v>94.2</v>
+        <v>91.3</v>
       </c>
       <c r="E83" t="n">
-        <v>94.2</v>
+        <v>91.3</v>
       </c>
       <c r="F83" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>93.7499999999999</v>
+        <v>-96835.14340830281</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3406,32 +3838,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>91.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="C84" t="n">
-        <v>91.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="D84" t="n">
-        <v>91.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="E84" t="n">
-        <v>91.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="F84" t="n">
-        <v>19.4287</v>
+        <v>19591.0027</v>
       </c>
       <c r="G84" t="n">
-        <v>92.64999999999989</v>
+        <v>-96835.14340830281</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3442,32 +3880,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>91.2</v>
+        <v>91.5</v>
       </c>
       <c r="C85" t="n">
-        <v>91.2</v>
+        <v>99</v>
       </c>
       <c r="D85" t="n">
-        <v>91.2</v>
+        <v>99</v>
       </c>
       <c r="E85" t="n">
-        <v>91.2</v>
+        <v>91.5</v>
       </c>
       <c r="F85" t="n">
-        <v>8</v>
+        <v>13203.9996359596</v>
       </c>
       <c r="G85" t="n">
-        <v>91.14999999999989</v>
+        <v>-83631.14377234322</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3922,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>91.3</v>
+        <v>97</v>
       </c>
       <c r="C86" t="n">
-        <v>91.3</v>
+        <v>97</v>
       </c>
       <c r="D86" t="n">
-        <v>91.3</v>
+        <v>97</v>
       </c>
       <c r="E86" t="n">
-        <v>91.3</v>
+        <v>97</v>
       </c>
       <c r="F86" t="n">
-        <v>6</v>
+        <v>10000</v>
       </c>
       <c r="G86" t="n">
-        <v>91.2499999999999</v>
+        <v>-93631.14377234322</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3502,8 +3946,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3514,62 +3964,66 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>93.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="C87" t="n">
-        <v>93.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="D87" t="n">
-        <v>93.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="E87" t="n">
-        <v>93.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>251.341</v>
       </c>
       <c r="G87" t="n">
-        <v>92.59999999999991</v>
+        <v>-93882.48477234322</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>91.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="L87" t="inlineStr"/>
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>1.090890410958904</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1.02076124567474</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>91.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>91.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>91.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>91.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>6</v>
+        <v>304.2332</v>
       </c>
       <c r="G88" t="n">
-        <v>92.64999999999989</v>
+        <v>-94186.71797234322</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3578,14 +4032,8 @@
         <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3596,40 +4044,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="C89" t="n">
-        <v>93.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="E89" t="n">
-        <v>93.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>6</v>
+        <v>754.4056</v>
       </c>
       <c r="G89" t="n">
-        <v>92.64999999999991</v>
+        <v>-94941.12357234322</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="K89" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3640,28 +4080,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>91.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>91.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>91.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>91.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>1443.7279</v>
+        <v>6</v>
       </c>
       <c r="G90" t="n">
-        <v>92.69999999999992</v>
+        <v>-94935.12357234322</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3676,22 +4116,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>93.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>93.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>93.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>93.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G91" t="n">
-        <v>92.59999999999992</v>
+        <v>-95435.12357234322</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3712,22 +4152,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>93.7</v>
+        <v>94</v>
       </c>
       <c r="C92" t="n">
-        <v>93.7</v>
+        <v>94</v>
       </c>
       <c r="D92" t="n">
-        <v>93.7</v>
+        <v>94</v>
       </c>
       <c r="E92" t="n">
-        <v>93.7</v>
+        <v>94</v>
       </c>
       <c r="F92" t="n">
-        <v>746.107</v>
+        <v>500</v>
       </c>
       <c r="G92" t="n">
-        <v>93.69999999999993</v>
+        <v>-95935.12357234322</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3748,28 +4188,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>93.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>93.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>93.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>93.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>700</v>
+        <v>6</v>
       </c>
       <c r="G93" t="n">
-        <v>93.79999999999993</v>
+        <v>-95929.12357234322</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3784,22 +4224,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>93.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>93.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>93.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>93.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>700</v>
+        <v>736.4056</v>
       </c>
       <c r="G94" t="n">
-        <v>93.89999999999995</v>
+        <v>-95929.12357234322</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3820,22 +4260,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D95" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E95" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F95" t="n">
-        <v>1014.2093</v>
+        <v>251.341</v>
       </c>
       <c r="G95" t="n">
-        <v>93.94999999999995</v>
+        <v>-96180.46457234322</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3856,28 +4296,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>94</v>
+        <v>94.7</v>
       </c>
       <c r="C96" t="n">
-        <v>94</v>
+        <v>94.7</v>
       </c>
       <c r="D96" t="n">
-        <v>94</v>
+        <v>94.7</v>
       </c>
       <c r="E96" t="n">
-        <v>94</v>
+        <v>94.7</v>
       </c>
       <c r="F96" t="n">
-        <v>164.9291</v>
+        <v>6</v>
       </c>
       <c r="G96" t="n">
-        <v>93.99999999999993</v>
+        <v>-96174.46457234322</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3892,38 +4332,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>94.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="C97" t="n">
-        <v>92.3</v>
+        <v>94.7</v>
       </c>
       <c r="D97" t="n">
-        <v>94.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="E97" t="n">
-        <v>92.3</v>
+        <v>94.7</v>
       </c>
       <c r="F97" t="n">
-        <v>28</v>
+        <v>245.341</v>
       </c>
       <c r="G97" t="n">
-        <v>93.14999999999992</v>
+        <v>-96174.46457234322</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
-      <c r="J97" t="n">
-        <v>94</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3934,22 +4368,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>92.40000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="C98" t="n">
-        <v>92</v>
+        <v>94.7</v>
       </c>
       <c r="D98" t="n">
-        <v>92.40000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="E98" t="n">
-        <v>92</v>
+        <v>94.7</v>
       </c>
       <c r="F98" t="n">
-        <v>577.7101</v>
+        <v>304.2332</v>
       </c>
       <c r="G98" t="n">
-        <v>92.14999999999992</v>
+        <v>-96174.46457234322</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3959,11 +4393,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3974,22 +4404,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>92.3</v>
+        <v>94.7</v>
       </c>
       <c r="C99" t="n">
-        <v>92.3</v>
+        <v>94.7</v>
       </c>
       <c r="D99" t="n">
-        <v>92.3</v>
+        <v>94.7</v>
       </c>
       <c r="E99" t="n">
-        <v>92.3</v>
+        <v>94.7</v>
       </c>
       <c r="F99" t="n">
-        <v>6.2645</v>
+        <v>500</v>
       </c>
       <c r="G99" t="n">
-        <v>92.14999999999992</v>
+        <v>-96174.46457234322</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3999,11 +4429,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4014,38 +4440,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>93.8</v>
+        <v>94.7</v>
       </c>
       <c r="C100" t="n">
-        <v>93.8</v>
+        <v>94.7</v>
       </c>
       <c r="D100" t="n">
-        <v>93.8</v>
+        <v>94.7</v>
       </c>
       <c r="E100" t="n">
-        <v>93.8</v>
+        <v>94.7</v>
       </c>
       <c r="F100" t="n">
-        <v>6</v>
+        <v>1984.3566</v>
       </c>
       <c r="G100" t="n">
-        <v>93.04999999999993</v>
+        <v>-96174.46457234322</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>92.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4056,22 +4476,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>93.5</v>
+        <v>95</v>
       </c>
       <c r="C101" t="n">
-        <v>94.2</v>
+        <v>95</v>
       </c>
       <c r="D101" t="n">
-        <v>94.2</v>
+        <v>95</v>
       </c>
       <c r="E101" t="n">
-        <v>93.5</v>
+        <v>95</v>
       </c>
       <c r="F101" t="n">
-        <v>3006</v>
+        <v>6</v>
       </c>
       <c r="G101" t="n">
-        <v>93.99999999999991</v>
+        <v>-96168.46457234322</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4081,11 +4501,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4096,36 +4512,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>94.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="C102" t="n">
-        <v>94.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="D102" t="n">
-        <v>94.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="E102" t="n">
-        <v>94.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="F102" t="n">
-        <v>10.62699256110521</v>
+        <v>2989.0125</v>
       </c>
       <c r="G102" t="n">
-        <v>94.14999999999989</v>
+        <v>-96168.46457234322</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4136,36 +4548,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>92.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="C103" t="n">
-        <v>92.8</v>
+        <v>95</v>
       </c>
       <c r="D103" t="n">
-        <v>92.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="E103" t="n">
-        <v>92.8</v>
+        <v>95</v>
       </c>
       <c r="F103" t="n">
-        <v>3462.6061</v>
+        <v>7504.9875</v>
       </c>
       <c r="G103" t="n">
-        <v>93.4499999999999</v>
+        <v>-96168.46457234322</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4176,22 +4584,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>92.8</v>
+        <v>95.5</v>
       </c>
       <c r="C104" t="n">
-        <v>92.7</v>
+        <v>95.5</v>
       </c>
       <c r="D104" t="n">
-        <v>92.8</v>
+        <v>95.5</v>
       </c>
       <c r="E104" t="n">
-        <v>92.7</v>
+        <v>95.5</v>
       </c>
       <c r="F104" t="n">
-        <v>2581.1801</v>
+        <v>6</v>
       </c>
       <c r="G104" t="n">
-        <v>92.7499999999999</v>
+        <v>-96162.46457234322</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4201,11 +4609,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4216,22 +4620,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>92.7</v>
+        <v>95.5</v>
       </c>
       <c r="C105" t="n">
-        <v>92.7</v>
+        <v>95.5</v>
       </c>
       <c r="D105" t="n">
-        <v>92.7</v>
+        <v>95.5</v>
       </c>
       <c r="E105" t="n">
-        <v>92.7</v>
+        <v>95.5</v>
       </c>
       <c r="F105" t="n">
-        <v>547.0864</v>
+        <v>50</v>
       </c>
       <c r="G105" t="n">
-        <v>92.6999999999999</v>
+        <v>-96162.46457234322</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4241,11 +4645,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4256,22 +4656,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>92.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="C106" t="n">
-        <v>92.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="D106" t="n">
-        <v>92.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="E106" t="n">
-        <v>92.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="F106" t="n">
-        <v>8688.9503</v>
+        <v>73.864</v>
       </c>
       <c r="G106" t="n">
-        <v>92.54999999999993</v>
+        <v>-96236.32857234322</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4281,11 +4681,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4296,22 +4692,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>93.59999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>93.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="D107" t="n">
-        <v>93.59999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>93.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="F107" t="n">
-        <v>5.7</v>
+        <v>122.4719</v>
       </c>
       <c r="G107" t="n">
-        <v>92.99999999999991</v>
+        <v>-96358.80047234322</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4321,11 +4717,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4336,68 +4728,64 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>92.40000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="C108" t="n">
-        <v>92.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="D108" t="n">
-        <v>92.40000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="E108" t="n">
-        <v>92.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="F108" t="n">
-        <v>17438.8257</v>
+        <v>500</v>
       </c>
       <c r="G108" t="n">
-        <v>92.84999999999989</v>
+        <v>-96858.80047234322</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
-        <v>1.151162790697674</v>
-      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>92.09999999999999</v>
+        <v>92</v>
       </c>
       <c r="C109" t="n">
-        <v>91.40000000000001</v>
+        <v>92</v>
       </c>
       <c r="D109" t="n">
-        <v>92.09999999999999</v>
+        <v>92</v>
       </c>
       <c r="E109" t="n">
-        <v>91.40000000000001</v>
+        <v>92</v>
       </c>
       <c r="F109" t="n">
-        <v>7805.6672</v>
+        <v>3206.971</v>
       </c>
       <c r="G109" t="n">
-        <v>91.7499999999999</v>
+        <v>-100065.7714723432</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4412,38 +4800,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>91.40000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>92.59999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>92.59999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>91.40000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>29689.6886</v>
+        <v>19291.3333</v>
       </c>
       <c r="G110" t="n">
-        <v>91.9999999999999</v>
+        <v>-119357.1047723432</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>91.40000000000001</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4454,36 +4836,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>93.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="C111" t="n">
-        <v>93.7</v>
+        <v>93.3</v>
       </c>
       <c r="D111" t="n">
-        <v>93.7</v>
+        <v>93.3</v>
       </c>
       <c r="E111" t="n">
-        <v>93.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="F111" t="n">
-        <v>3481.4218</v>
+        <v>6</v>
       </c>
       <c r="G111" t="n">
-        <v>93.14999999999991</v>
+        <v>-119351.1047723432</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4494,36 +4872,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>93.8</v>
+        <v>94.2</v>
       </c>
       <c r="C112" t="n">
-        <v>93.8</v>
+        <v>94.2</v>
       </c>
       <c r="D112" t="n">
-        <v>93.8</v>
+        <v>94.2</v>
       </c>
       <c r="E112" t="n">
-        <v>93.8</v>
+        <v>94.2</v>
       </c>
       <c r="F112" t="n">
-        <v>1839.4522</v>
+        <v>6</v>
       </c>
       <c r="G112" t="n">
-        <v>93.7499999999999</v>
+        <v>-119345.1047723432</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4534,22 +4908,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>93.5</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>93.5</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>93.5</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>93.5</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>2.7</v>
+        <v>19.4287</v>
       </c>
       <c r="G113" t="n">
-        <v>93.64999999999989</v>
+        <v>-119364.5334723432</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4559,11 +4933,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4574,36 +4944,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="C114" t="n">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="D114" t="n">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="E114" t="n">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="F114" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G114" t="n">
-        <v>92.39999999999989</v>
+        <v>-119356.5334723432</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4614,38 +4980,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>92.40000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="C115" t="n">
-        <v>92.40000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="D115" t="n">
-        <v>92.40000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="E115" t="n">
-        <v>92.40000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G115" t="n">
-        <v>91.84999999999991</v>
+        <v>-119350.5334723432</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>91.3</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4656,38 +5016,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>91.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>88.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>91.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>88.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>10972.6744</v>
+        <v>6</v>
       </c>
       <c r="G116" t="n">
-        <v>90.64999999999989</v>
+        <v>-119344.5334723432</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>92.40000000000001</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4698,38 +5052,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>88.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>92.2</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>92.2</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>88.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>9695.1247</v>
+        <v>6</v>
       </c>
       <c r="G117" t="n">
-        <v>90.54999999999988</v>
+        <v>-119350.5334723432</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>88.90000000000001</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4740,38 +5088,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>89.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>89</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>89.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>89</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>8697.367899999999</v>
+        <v>6</v>
       </c>
       <c r="G118" t="n">
-        <v>90.59999999999989</v>
+        <v>-119344.5334723432</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>92.2</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4782,38 +5124,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>92</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>92</v>
+        <v>91.5</v>
       </c>
       <c r="D119" t="n">
-        <v>92</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>92</v>
+        <v>91.5</v>
       </c>
       <c r="F119" t="n">
-        <v>6</v>
+        <v>1443.7279</v>
       </c>
       <c r="G119" t="n">
-        <v>90.49999999999991</v>
+        <v>-120788.2613723432</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>89</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4824,38 +5160,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>91.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C120" t="n">
-        <v>91.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D120" t="n">
-        <v>91.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E120" t="n">
-        <v>91.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="F120" t="n">
-        <v>7695.5314</v>
+        <v>30</v>
       </c>
       <c r="G120" t="n">
-        <v>91.69999999999993</v>
+        <v>-120758.2613723432</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>92</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4866,38 +5196,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>90.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="C121" t="n">
-        <v>89.5</v>
+        <v>93.7</v>
       </c>
       <c r="D121" t="n">
-        <v>90.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="E121" t="n">
-        <v>89.5</v>
+        <v>93.7</v>
       </c>
       <c r="F121" t="n">
-        <v>5276.0174</v>
+        <v>746.107</v>
       </c>
       <c r="G121" t="n">
-        <v>90.44999999999993</v>
+        <v>-120758.2613723432</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>91.40000000000001</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4908,42 +5232,1080 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C122" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D122" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E122" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F122" t="n">
+        <v>700</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-120058.2613723432</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C123" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D123" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E123" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F123" t="n">
+        <v>700</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-120058.2613723432</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C124" t="n">
+        <v>94</v>
+      </c>
+      <c r="D124" t="n">
+        <v>94</v>
+      </c>
+      <c r="E124" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1014.2093</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-119044.0520723432</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>94</v>
+      </c>
+      <c r="C125" t="n">
+        <v>94</v>
+      </c>
+      <c r="D125" t="n">
+        <v>94</v>
+      </c>
+      <c r="E125" t="n">
+        <v>94</v>
+      </c>
+      <c r="F125" t="n">
+        <v>164.9291</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-119044.0520723432</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="E126" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>28</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-119072.0520723432</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="C127" t="n">
+        <v>92</v>
+      </c>
+      <c r="D127" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="E127" t="n">
+        <v>92</v>
+      </c>
+      <c r="F127" t="n">
+        <v>577.7101</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-119649.7621723432</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="D128" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="E128" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6.2645</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-119643.4976723432</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-119637.4976723432</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3006</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-116631.4976723432</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="D131" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="E131" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10.62699256110521</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-116642.1246649043</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C132" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3462.6061</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-120104.7307649043</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="D133" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2581.1801</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-122685.9108649043</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>547.0864</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-122685.9108649043</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="D135" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8688.9503</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-131374.8611649043</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="D136" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="E136" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-131369.1611649043</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="C137" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="D137" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="E137" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="F137" t="n">
+        <v>17438.8257</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-148807.9868649043</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D138" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="E138" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7805.6672</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-156613.6540649043</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="C139" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="D139" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="E139" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="F139" t="n">
+        <v>29689.6886</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-126923.9654649044</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3481.4218</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-123442.5436649044</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1839.4522</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-121603.0914649044</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-121605.7914649044</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
         <v>91.3</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C143" t="n">
         <v>91.3</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D143" t="n">
         <v>91.3</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E143" t="n">
         <v>91.3</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F143" t="n">
         <v>6</v>
       </c>
-      <c r="G122" t="n">
-        <v>90.39999999999993</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
+      <c r="G143" t="n">
+        <v>-121611.7914649044</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="D144" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-121608.7914649044</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="D145" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>10972.6744</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-132581.4658649043</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="C146" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="F146" t="n">
+        <v>9695.1247</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-122886.3411649043</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>89</v>
+      </c>
+      <c r="D147" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>89</v>
+      </c>
+      <c r="F147" t="n">
+        <v>8697.367899999999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-131583.7090649043</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>92</v>
+      </c>
+      <c r="C148" t="n">
+        <v>92</v>
+      </c>
+      <c r="D148" t="n">
+        <v>92</v>
+      </c>
+      <c r="E148" t="n">
+        <v>92</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-131577.7090649043</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="C149" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7695.5314</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-139273.2404649043</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="C150" t="n">
         <v>89.5</v>
       </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="E150" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5276.0174</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-144549.2578649044</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="E151" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>6</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-144543.2578649044</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-26 BackTest WOM.xlsx
+++ b/BackTest/2019-11-26 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,19 @@
         <v>-90578.66930000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +754,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +793,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +832,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +863,19 @@
         <v>-92240.35400000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="J14" t="n">
+        <v>87</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +900,23 @@
         <v>-94749.22270000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>87.59999999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>87</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +941,23 @@
         <v>-91645.95060000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>86.90000000000001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>87</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,22 +982,23 @@
         <v>-93035.19950000002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="K17" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1036,26 +1023,23 @@
         <v>-93241.87300000002</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.8</v>
       </c>
       <c r="J18" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1080,26 +1064,21 @@
         <v>-93241.87300000002</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1124,26 +1103,23 @@
         <v>-94611.94050000003</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>86.7</v>
       </c>
       <c r="J20" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1168,26 +1144,23 @@
         <v>-100212.8026</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="K21" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1212,26 +1185,23 @@
         <v>-100207.0026</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="J22" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1256,26 +1226,23 @@
         <v>-107866.0244</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>86.8</v>
       </c>
       <c r="J23" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1300,26 +1267,21 @@
         <v>-107860.2244</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>86</v>
-      </c>
-      <c r="K24" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1344,26 +1306,23 @@
         <v>-107865.2244</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="K25" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1388,26 +1347,23 @@
         <v>-107865.2244</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>87.3</v>
       </c>
       <c r="J26" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1432,26 +1388,23 @@
         <v>-106865.2244</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>87.3</v>
       </c>
       <c r="J27" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1476,26 +1429,23 @@
         <v>-106865.2244</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K28" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1520,26 +1470,23 @@
         <v>-96944.37550000002</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K29" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1564,26 +1511,23 @@
         <v>-96844.37550000002</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="K30" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1608,24 +1552,23 @@
         <v>-96844.37550000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>87.7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>87</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1650,24 +1593,23 @@
         <v>-96844.37550000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>87.7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>87</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1694,22 +1636,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>87</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1736,22 +1675,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>87</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1778,22 +1714,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>87</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1818,24 +1751,23 @@
         <v>-102518.1552</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>87.3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>87</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1860,26 +1792,23 @@
         <v>-100776.4049</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.3</v>
       </c>
       <c r="J37" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1904,26 +1833,23 @@
         <v>-101619.3939</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="J38" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K38" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1948,26 +1874,23 @@
         <v>-101619.3939</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="J39" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1992,26 +1915,23 @@
         <v>-101619.3939</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="J40" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="K40" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2036,26 +1956,23 @@
         <v>-101391.91385439</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="J41" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2080,26 +1997,23 @@
         <v>-101577.67155439</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>87.7</v>
       </c>
       <c r="J42" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="K42" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2124,26 +2038,23 @@
         <v>-101577.67155439</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="K43" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2168,26 +2079,23 @@
         <v>-101571.67155439</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="K44" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2212,26 +2120,23 @@
         <v>-101571.67155439</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>87.7</v>
       </c>
       <c r="J45" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="K45" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2256,24 +2161,23 @@
         <v>-101565.97155439</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>87.7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>87</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2298,26 +2202,23 @@
         <v>-101565.97155439</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>87.8</v>
       </c>
       <c r="J47" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="K47" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2344,24 +2245,19 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="K48" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2386,24 +2282,21 @@
         <v>-90719.49615238556</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>87</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2428,24 +2321,21 @@
         <v>-103151.0591523856</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>87</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2470,24 +2360,21 @@
         <v>-103145.0591523856</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>87</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2512,24 +2399,21 @@
         <v>-108997.6431523856</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>87</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2554,24 +2438,21 @@
         <v>-108897.6431523856</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>87</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2596,24 +2477,21 @@
         <v>-107456.7379523856</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>87</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2638,24 +2516,21 @@
         <v>-108230.6200523856</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>87</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2682,22 +2557,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>87</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2724,22 +2596,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>87</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2764,24 +2633,21 @@
         <v>-99387.20915238556</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>87</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2806,24 +2672,21 @@
         <v>-97291.52685238556</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>87</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2850,22 +2713,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>87</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2892,22 +2752,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>87</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2934,22 +2791,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>87</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2976,22 +2830,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>87</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3018,22 +2869,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>87</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3058,24 +2906,23 @@
         <v>-97285.52685238556</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>89.8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>87</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3102,22 +2949,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>87</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3142,24 +2986,23 @@
         <v>-96610.22555238556</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>89.8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>87</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3186,22 +3029,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>87</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3226,24 +3066,23 @@
         <v>-97522.15825238556</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="J69" t="n">
+        <v>87</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3268,24 +3107,23 @@
         <v>-92304.51396124398</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>89.8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>87</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3310,24 +3148,23 @@
         <v>-91674.51396124398</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>90.40000000000001</v>
+      </c>
+      <c r="J71" t="n">
+        <v>87</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3352,24 +3189,23 @@
         <v>-94969.94846124398</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>90.5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>87</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3394,24 +3230,23 @@
         <v>-94969.94846124398</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>89.2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>87</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3438,22 +3273,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>87</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3480,22 +3312,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>87</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3522,22 +3351,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>87</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3564,22 +3390,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>87</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3606,22 +3429,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>87</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3648,22 +3468,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>87</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3690,22 +3507,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>87</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3732,22 +3546,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>87</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3774,22 +3585,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>87</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3816,22 +3624,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>87</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3858,22 +3663,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>87</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3900,22 +3702,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>87</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3940,24 +3739,21 @@
         <v>-93631.14377234322</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>87</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3984,24 +3780,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1.090890410958904</v>
-      </c>
-      <c r="N87" t="n">
-        <v>1.02076124567474</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>87</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4028,16 +3819,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>87</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4064,16 +3858,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>87</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4100,16 +3897,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>87</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4134,18 +3934,23 @@
         <v>-95435.12357234322</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>87</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.082356321839081</v>
+      </c>
       <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>1.018411967779056</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4172,16 +3977,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4208,16 +4010,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4244,16 +4043,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4278,18 +4074,15 @@
         <v>-96180.46457234322</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4316,16 +4109,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4352,16 +4142,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4388,16 +4175,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4422,18 +4206,15 @@
         <v>-96174.46457234322</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4458,18 +4239,15 @@
         <v>-96174.46457234322</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4494,18 +4272,15 @@
         <v>-96168.46457234322</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4530,18 +4305,15 @@
         <v>-96168.46457234322</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4566,18 +4338,15 @@
         <v>-96168.46457234322</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4602,18 +4371,15 @@
         <v>-96162.46457234322</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4638,18 +4404,15 @@
         <v>-96162.46457234322</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4674,18 +4437,15 @@
         <v>-96236.32857234322</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4710,18 +4470,15 @@
         <v>-96358.80047234322</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4746,18 +4503,15 @@
         <v>-96858.80047234322</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4782,18 +4536,15 @@
         <v>-100065.7714723432</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4820,16 +4571,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4856,16 +4604,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4892,16 +4637,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4928,16 +4670,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4964,16 +4703,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5000,16 +4736,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5036,16 +4769,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5072,16 +4802,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5108,16 +4835,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5144,16 +4868,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5180,16 +4901,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5216,16 +4934,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5252,16 +4967,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5288,16 +5000,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5324,16 +5033,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5360,16 +5066,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5396,16 +5099,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5432,16 +5132,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5468,16 +5165,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5504,16 +5198,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5540,16 +5231,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5576,16 +5264,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5612,16 +5297,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5648,16 +5330,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5684,16 +5363,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5720,16 +5396,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5756,16 +5429,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5792,16 +5462,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5828,16 +5495,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5864,16 +5528,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5900,16 +5561,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5936,16 +5594,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5972,16 +5627,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6008,16 +5660,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6044,16 +5693,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6080,16 +5726,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6116,16 +5759,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6152,16 +5792,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6188,16 +5825,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6224,16 +5858,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6260,16 +5891,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6296,18 +5924,15 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-26 BackTest WOM.xlsx
+++ b/BackTest/2019-11-26 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>-90578.66930000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>87.09999999999999</v>
@@ -863,7 +863,7 @@
         <v>-92240.35400000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>87</v>
@@ -900,11 +900,9 @@
         <v>-94749.22270000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>87.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>87</v>
       </c>
@@ -941,7 +939,7 @@
         <v>-91645.95060000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>86.90000000000001</v>
@@ -982,7 +980,7 @@
         <v>-93035.19950000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>87.59999999999999</v>
@@ -1023,7 +1021,7 @@
         <v>-93241.87300000002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>86.8</v>
@@ -1064,9 +1062,11 @@
         <v>-93241.87300000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>86.7</v>
+      </c>
       <c r="J19" t="n">
         <v>87</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>-94611.94050000003</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>86.7</v>
@@ -1144,11 +1144,9 @@
         <v>-100212.8026</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>86.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>87</v>
       </c>
@@ -1185,7 +1183,7 @@
         <v>-100207.0026</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>86.5</v>
@@ -1226,7 +1224,7 @@
         <v>-107866.0244</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>86.8</v>
@@ -1267,9 +1265,11 @@
         <v>-107860.2244</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>86</v>
+      </c>
       <c r="J24" t="n">
         <v>87</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>-107865.2244</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>87.59999999999999</v>
@@ -1347,7 +1347,7 @@
         <v>-107865.2244</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>87.3</v>
@@ -1388,7 +1388,7 @@
         <v>-106865.2244</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>87.3</v>
@@ -1429,7 +1429,7 @@
         <v>-106865.2244</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>87.40000000000001</v>
@@ -1470,7 +1470,7 @@
         <v>-96944.37550000002</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>87.40000000000001</v>
@@ -1511,7 +1511,7 @@
         <v>-96844.37550000002</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>87.59999999999999</v>
@@ -1552,7 +1552,7 @@
         <v>-96844.37550000002</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>87.7</v>
@@ -1593,7 +1593,7 @@
         <v>-96844.37550000002</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>87.7</v>
@@ -1634,9 +1634,11 @@
         <v>-96838.67550000003</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J33" t="n">
         <v>87</v>
       </c>
@@ -1712,9 +1714,11 @@
         <v>-102518.1552</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J35" t="n">
         <v>87</v>
       </c>
@@ -1751,7 +1755,7 @@
         <v>-102518.1552</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>87.3</v>
@@ -1792,7 +1796,7 @@
         <v>-100776.4049</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>87.3</v>
@@ -1833,7 +1837,7 @@
         <v>-101619.3939</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>87.5</v>
@@ -1874,7 +1878,7 @@
         <v>-101619.3939</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>86.5</v>
@@ -1915,7 +1919,7 @@
         <v>-101619.3939</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>86.5</v>
@@ -1956,7 +1960,7 @@
         <v>-101391.91385439</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>86.5</v>
@@ -1997,7 +2001,7 @@
         <v>-101577.67155439</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>87.7</v>
@@ -2038,7 +2042,7 @@
         <v>-101577.67155439</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>86.40000000000001</v>
@@ -2079,7 +2083,7 @@
         <v>-101571.67155439</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>86.40000000000001</v>
@@ -2120,7 +2124,7 @@
         <v>-101571.67155439</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>87.7</v>
@@ -2161,7 +2165,7 @@
         <v>-101565.97155439</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>87.7</v>
@@ -2202,7 +2206,7 @@
         <v>-101565.97155439</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>87.8</v>
@@ -2245,7 +2249,9 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J48" t="n">
         <v>87</v>
       </c>
@@ -2284,7 +2290,9 @@
       <c r="H49" t="n">
         <v>1</v>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>89.8</v>
+      </c>
       <c r="J49" t="n">
         <v>87</v>
       </c>
@@ -2323,7 +2331,9 @@
       <c r="H50" t="n">
         <v>1</v>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>88.2</v>
+      </c>
       <c r="J50" t="n">
         <v>87</v>
       </c>
@@ -2360,7 +2370,7 @@
         <v>-103145.0591523856</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
@@ -2399,7 +2409,7 @@
         <v>-108997.6431523856</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
@@ -2438,7 +2448,7 @@
         <v>-108897.6431523856</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
@@ -2477,7 +2487,7 @@
         <v>-107456.7379523856</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
@@ -2516,7 +2526,7 @@
         <v>-108230.6200523856</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
@@ -2594,9 +2604,11 @@
         <v>-98230.62005238557</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>89.09999999999999</v>
+      </c>
       <c r="J57" t="n">
         <v>87</v>
       </c>
@@ -2635,7 +2647,9 @@
       <c r="H58" t="n">
         <v>1</v>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>90</v>
+      </c>
       <c r="J58" t="n">
         <v>87</v>
       </c>
@@ -2674,7 +2688,9 @@
       <c r="H59" t="n">
         <v>1</v>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>89.7</v>
+      </c>
       <c r="J59" t="n">
         <v>87</v>
       </c>
@@ -2711,9 +2727,11 @@
         <v>-97291.52685238556</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>89.8</v>
+      </c>
       <c r="J60" t="n">
         <v>87</v>
       </c>
@@ -2828,9 +2846,11 @@
         <v>-97291.52685238556</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>89.8</v>
+      </c>
       <c r="J63" t="n">
         <v>87</v>
       </c>
@@ -2867,9 +2887,11 @@
         <v>-97291.52685238556</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>89.8</v>
+      </c>
       <c r="J64" t="n">
         <v>87</v>
       </c>
@@ -2906,7 +2928,7 @@
         <v>-97285.52685238556</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>89.8</v>
@@ -2947,9 +2969,11 @@
         <v>-99661.95855238556</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>90</v>
+      </c>
       <c r="J66" t="n">
         <v>87</v>
       </c>
@@ -2986,7 +3010,7 @@
         <v>-96610.22555238556</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>89.8</v>
@@ -3027,9 +3051,11 @@
         <v>-96610.22555238556</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>90</v>
+      </c>
       <c r="J68" t="n">
         <v>87</v>
       </c>
@@ -3066,7 +3092,7 @@
         <v>-97522.15825238556</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>90</v>
@@ -3107,7 +3133,7 @@
         <v>-92304.51396124398</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>89.8</v>
@@ -3148,7 +3174,7 @@
         <v>-91674.51396124398</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>90.40000000000001</v>
@@ -3189,11 +3215,9 @@
         <v>-94969.94846124398</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>90.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>87</v>
       </c>
@@ -3230,11 +3254,9 @@
         <v>-94969.94846124398</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>89.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>87</v>
       </c>
@@ -3739,7 +3761,7 @@
         <v>-93631.14377234322</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
@@ -3934,7 +3956,7 @@
         <v>-95435.12357234322</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
@@ -3942,15 +3964,13 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.082356321839081</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.018411967779056</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3978,8 +3998,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>87</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4011,8 +4037,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>87</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4044,8 +4076,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>87</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4074,11 +4112,17 @@
         <v>-96180.46457234322</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>87</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4110,8 +4154,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>87</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4143,8 +4193,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>87</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4176,8 +4232,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>87</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4206,11 +4268,17 @@
         <v>-96174.46457234322</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>87</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4239,11 +4307,17 @@
         <v>-96174.46457234322</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>87</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4272,11 +4346,17 @@
         <v>-96168.46457234322</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>87</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4305,11 +4385,17 @@
         <v>-96168.46457234322</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>87</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4338,11 +4424,17 @@
         <v>-96168.46457234322</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>87</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4371,15 +4463,23 @@
         <v>-96162.46457234322</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>87</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>1.092701149425287</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.018411967779056</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4404,7 +4504,7 @@
         <v>-96162.46457234322</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4437,7 +4537,7 @@
         <v>-96236.32857234322</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4470,7 +4570,7 @@
         <v>-96358.80047234322</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4503,7 +4603,7 @@
         <v>-96858.80047234322</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4536,7 +4636,7 @@
         <v>-100065.7714723432</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4602,7 +4702,7 @@
         <v>-119351.1047723432</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4668,7 +4768,7 @@
         <v>-119364.5334723432</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4932,7 +5032,7 @@
         <v>-120758.2613723432</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4965,7 +5065,7 @@
         <v>-120058.2613723432</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4998,7 +5098,7 @@
         <v>-120058.2613723432</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5031,7 +5131,7 @@
         <v>-119044.0520723432</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5064,7 +5164,7 @@
         <v>-119044.0520723432</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5097,7 +5197,7 @@
         <v>-119072.0520723432</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5130,7 +5230,7 @@
         <v>-119649.7621723432</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5229,7 +5329,7 @@
         <v>-116631.4976723432</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5262,7 +5362,7 @@
         <v>-116642.1246649043</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5295,7 +5395,7 @@
         <v>-120104.7307649043</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5394,7 +5494,7 @@
         <v>-131374.8611649043</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5427,7 +5527,7 @@
         <v>-131369.1611649043</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5460,7 +5560,7 @@
         <v>-148807.9868649043</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5493,7 +5593,7 @@
         <v>-156613.6540649043</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5559,7 +5659,7 @@
         <v>-123442.5436649044</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5592,7 +5692,7 @@
         <v>-121603.0914649044</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5625,7 +5725,7 @@
         <v>-121605.7914649044</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5933,6 +6033,6 @@
       <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-26 BackTest WOM.xlsx
+++ b/BackTest/2019-11-26 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,14 +715,10 @@
         <v>-90578.66930000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>87.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -755,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -794,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -863,14 +847,10 @@
         <v>-92240.35400000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>87</v>
-      </c>
-      <c r="J14" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -903,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>87</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -939,19 +913,11 @@
         <v>-91645.95060000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>87</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -980,19 +946,11 @@
         <v>-93035.19950000002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="J17" t="n">
-        <v>87</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1021,19 +979,11 @@
         <v>-93241.87300000002</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>87</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1062,19 +1012,11 @@
         <v>-93241.87300000002</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>87</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1103,19 +1045,11 @@
         <v>-94611.94050000003</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>87</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1147,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>87</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1183,19 +1111,11 @@
         <v>-100207.0026</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>87</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1224,19 +1144,11 @@
         <v>-107866.0244</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>87</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1265,19 +1177,11 @@
         <v>-107860.2244</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>86</v>
-      </c>
-      <c r="J24" t="n">
-        <v>87</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1306,19 +1210,11 @@
         <v>-107865.2244</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="J25" t="n">
-        <v>87</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1347,19 +1243,11 @@
         <v>-107865.2244</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>87</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1388,19 +1276,11 @@
         <v>-106865.2244</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>87</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1429,19 +1309,11 @@
         <v>-106865.2244</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="J28" t="n">
-        <v>87</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1470,19 +1342,11 @@
         <v>-96944.37550000002</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="J29" t="n">
-        <v>87</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1511,19 +1375,11 @@
         <v>-96844.37550000002</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="J30" t="n">
-        <v>87</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1552,19 +1408,11 @@
         <v>-96844.37550000002</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>87</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1593,19 +1441,11 @@
         <v>-96844.37550000002</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>87</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1634,19 +1474,11 @@
         <v>-96838.67550000003</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>87</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1678,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>87</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1714,19 +1540,11 @@
         <v>-102518.1552</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>87</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1755,19 +1573,11 @@
         <v>-102518.1552</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>87</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1796,19 +1606,11 @@
         <v>-100776.4049</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>87</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1837,19 +1639,11 @@
         <v>-101619.3939</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>87</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1883,12 +1677,10 @@
       <c r="I39" t="n">
         <v>86.5</v>
       </c>
-      <c r="J39" t="n">
-        <v>87</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1924,9 +1716,7 @@
       <c r="I40" t="n">
         <v>86.5</v>
       </c>
-      <c r="J40" t="n">
-        <v>87</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1965,9 +1755,7 @@
       <c r="I41" t="n">
         <v>86.5</v>
       </c>
-      <c r="J41" t="n">
-        <v>87</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2006,9 +1794,7 @@
       <c r="I42" t="n">
         <v>87.7</v>
       </c>
-      <c r="J42" t="n">
-        <v>87</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2047,9 +1833,7 @@
       <c r="I43" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="J43" t="n">
-        <v>87</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2088,9 +1872,7 @@
       <c r="I44" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="J44" t="n">
-        <v>87</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2129,9 +1911,7 @@
       <c r="I45" t="n">
         <v>87.7</v>
       </c>
-      <c r="J45" t="n">
-        <v>87</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2170,9 +1950,7 @@
       <c r="I46" t="n">
         <v>87.7</v>
       </c>
-      <c r="J46" t="n">
-        <v>87</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2211,9 +1989,7 @@
       <c r="I47" t="n">
         <v>87.8</v>
       </c>
-      <c r="J47" t="n">
-        <v>87</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2252,9 +2028,7 @@
       <c r="I48" t="n">
         <v>87.8</v>
       </c>
-      <c r="J48" t="n">
-        <v>87</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2288,14 +2062,10 @@
         <v>-90719.49615238556</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2329,14 +2099,10 @@
         <v>-103151.0591523856</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2373,9 +2139,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>87</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2412,9 +2176,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>87</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2451,9 +2213,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>87</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2490,9 +2250,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>87</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2529,9 +2287,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>87</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2568,9 +2324,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>87</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2604,14 +2358,10 @@
         <v>-98230.62005238557</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="J57" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2645,14 +2395,10 @@
         <v>-99387.20915238556</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>90</v>
-      </c>
-      <c r="J58" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2686,14 +2432,10 @@
         <v>-97291.52685238556</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2727,14 +2469,10 @@
         <v>-97291.52685238556</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2771,9 +2509,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>87</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2810,9 +2546,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>87</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2846,14 +2580,10 @@
         <v>-97291.52685238556</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2887,14 +2617,10 @@
         <v>-97291.52685238556</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2928,14 +2654,10 @@
         <v>-97285.52685238556</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2969,14 +2691,10 @@
         <v>-99661.95855238556</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>90</v>
-      </c>
-      <c r="J66" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3010,14 +2728,10 @@
         <v>-96610.22555238556</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="J67" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3051,14 +2765,10 @@
         <v>-96610.22555238556</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>90</v>
-      </c>
-      <c r="J68" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3092,14 +2802,10 @@
         <v>-97522.15825238556</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>90</v>
-      </c>
-      <c r="J69" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3133,14 +2839,10 @@
         <v>-92304.51396124398</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="J70" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3174,14 +2876,10 @@
         <v>-91674.51396124398</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="J71" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3218,9 +2916,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>87</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3257,9 +2953,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>87</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3296,9 +2990,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>87</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3335,9 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>87</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3374,9 +3064,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>87</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3413,9 +3101,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>87</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3452,9 +3138,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>87</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3491,9 +3175,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>87</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3530,9 +3212,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>87</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3569,9 +3249,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>87</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3608,9 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>87</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3647,9 +3323,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>87</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3686,9 +3360,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>87</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3725,9 +3397,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>87</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3761,20 +3431,16 @@
         <v>-93631.14377234322</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>87</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -3800,17 +3466,11 @@
         <v>-93882.48477234322</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>87</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3839,17 +3499,11 @@
         <v>-94186.71797234322</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>87</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3881,14 +3535,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>87</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3920,14 +3568,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>87</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3956,17 +3598,11 @@
         <v>-95435.12357234322</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>87</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3995,17 +3631,11 @@
         <v>-95935.12357234322</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>87</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4034,17 +3664,11 @@
         <v>-95929.12357234322</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>87</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4073,17 +3697,11 @@
         <v>-95929.12357234322</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>87</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4115,14 +3733,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>87</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4154,14 +3766,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>87</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4193,14 +3799,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>87</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4232,14 +3832,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>87</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4271,14 +3865,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>87</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4310,14 +3898,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>87</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4349,14 +3931,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>87</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4388,14 +3964,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>87</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4427,14 +3997,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>87</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4463,23 +4027,15 @@
         <v>-96162.46457234322</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>87</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>1.092701149425287</v>
-      </c>
-      <c r="M104" t="n">
-        <v>1.018411967779056</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4504,7 +4060,7 @@
         <v>-96162.46457234322</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4537,7 +4093,7 @@
         <v>-96236.32857234322</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4570,7 +4126,7 @@
         <v>-96358.80047234322</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4702,7 +4258,7 @@
         <v>-119351.1047723432</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4768,7 +4324,7 @@
         <v>-119364.5334723432</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4801,7 +4357,7 @@
         <v>-119356.5334723432</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4834,7 +4390,7 @@
         <v>-119350.5334723432</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4867,7 +4423,7 @@
         <v>-119344.5334723432</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4900,7 +4456,7 @@
         <v>-119350.5334723432</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4933,7 +4489,7 @@
         <v>-119344.5334723432</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4966,7 +4522,7 @@
         <v>-120788.2613723432</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4999,7 +4555,7 @@
         <v>-120758.2613723432</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5032,7 +4588,7 @@
         <v>-120758.2613723432</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5065,7 +4621,7 @@
         <v>-120058.2613723432</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5098,7 +4654,7 @@
         <v>-120058.2613723432</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5131,7 +4687,7 @@
         <v>-119044.0520723432</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5164,7 +4720,7 @@
         <v>-119044.0520723432</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5197,7 +4753,7 @@
         <v>-119072.0520723432</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5230,7 +4786,7 @@
         <v>-119649.7621723432</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5329,7 +4885,7 @@
         <v>-116631.4976723432</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5362,7 +4918,7 @@
         <v>-116642.1246649043</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5395,7 +4951,7 @@
         <v>-120104.7307649043</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5494,7 +5050,7 @@
         <v>-131374.8611649043</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5527,7 +5083,7 @@
         <v>-131369.1611649043</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5560,7 +5116,7 @@
         <v>-148807.9868649043</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5593,7 +5149,7 @@
         <v>-156613.6540649043</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5659,7 +5215,7 @@
         <v>-123442.5436649044</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5692,7 +5248,7 @@
         <v>-121603.0914649044</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5725,7 +5281,7 @@
         <v>-121605.7914649044</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -6033,6 +5589,6 @@
       <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-26 BackTest WOM.xlsx
+++ b/BackTest/2019-11-26 BackTest WOM.xlsx
@@ -1144,11 +1144,17 @@
         <v>-107866.0244</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>86.8</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1187,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1224,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1257,17 @@
         <v>-107865.2244</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>87.3</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1296,17 @@
         <v>-106865.2244</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>87.3</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1335,17 @@
         <v>-106865.2244</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>87.40000000000001</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1374,17 @@
         <v>-96944.37550000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>87.40000000000001</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1417,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1454,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1491,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1528,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1565,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1602,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1639,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1672,17 @@
         <v>-100776.4049</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>87.3</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1711,17 @@
         <v>-101619.3939</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>87.5</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1680,7 +1758,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -3431,16 +3509,18 @@
         <v>-93631.14377234322</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
       <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -3470,10 +3550,12 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -3598,7 +3680,7 @@
         <v>-95435.12357234322</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3631,7 +3713,7 @@
         <v>-95935.12357234322</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3664,7 +3746,7 @@
         <v>-95929.12357234322</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3697,7 +3779,7 @@
         <v>-95929.12357234322</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4093,7 +4175,7 @@
         <v>-96236.32857234322</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4126,7 +4208,7 @@
         <v>-96358.80047234322</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4159,7 +4241,7 @@
         <v>-96858.80047234322</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4357,7 +4439,7 @@
         <v>-119356.5334723432</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4390,7 +4472,7 @@
         <v>-119350.5334723432</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4423,7 +4505,7 @@
         <v>-119344.5334723432</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4456,7 +4538,7 @@
         <v>-119350.5334723432</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4489,7 +4571,7 @@
         <v>-119344.5334723432</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4522,7 +4604,7 @@
         <v>-120788.2613723432</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4555,7 +4637,7 @@
         <v>-120758.2613723432</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>

--- a/BackTest/2019-11-26 BackTest WOM.xlsx
+++ b/BackTest/2019-11-26 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>762.8122</v>
       </c>
       <c r="G2" t="n">
-        <v>-78251.67700000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1038.9849</v>
       </c>
       <c r="G3" t="n">
-        <v>-79290.66190000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2910.5359</v>
       </c>
       <c r="G4" t="n">
-        <v>-82201.19780000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5673.0181</v>
       </c>
       <c r="G5" t="n">
-        <v>-87874.21590000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>-87869.21590000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1000</v>
       </c>
       <c r="G7" t="n">
-        <v>-87869.21590000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2609.4534</v>
       </c>
       <c r="G8" t="n">
-        <v>-90478.66930000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>-90578.66930000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,19 @@
         <v>200</v>
       </c>
       <c r="G10" t="n">
-        <v>-90578.66930000001</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>87.09999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +717,23 @@
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>-90575.66930000001</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>87.09999999999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +755,23 @@
         <v>1667.6847</v>
       </c>
       <c r="G12" t="n">
-        <v>-92243.35400000001</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>87.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +793,19 @@
         <v>1103.6377</v>
       </c>
       <c r="G13" t="n">
-        <v>-92243.35400000001</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="I13" t="n">
+        <v>87</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +827,21 @@
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>-92240.35400000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>87</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +863,21 @@
         <v>2508.8687</v>
       </c>
       <c r="G15" t="n">
-        <v>-94749.22270000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>87</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +899,15 @@
         <v>3103.2721</v>
       </c>
       <c r="G16" t="n">
-        <v>-91645.95060000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +929,15 @@
         <v>1389.2489</v>
       </c>
       <c r="G17" t="n">
-        <v>-93035.19950000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +959,15 @@
         <v>206.6735</v>
       </c>
       <c r="G18" t="n">
-        <v>-93241.87300000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +989,21 @@
         <v>1208.1377</v>
       </c>
       <c r="G19" t="n">
-        <v>-93241.87300000002</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>86.7</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1025,19 @@
         <v>1370.0675</v>
       </c>
       <c r="G20" t="n">
-        <v>-94611.94050000003</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1059,19 @@
         <v>5600.8621</v>
       </c>
       <c r="G21" t="n">
-        <v>-100212.8026</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1093,21 @@
         <v>5.8</v>
       </c>
       <c r="G22" t="n">
-        <v>-100207.0026</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,24 +1129,19 @@
         <v>7659.0218</v>
       </c>
       <c r="G23" t="n">
-        <v>-107866.0244</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1180,22 +1163,21 @@
         <v>5.8</v>
       </c>
       <c r="G24" t="n">
-        <v>-107860.2244</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1217,22 +1199,21 @@
         <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>-107865.2244</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1254,24 +1235,21 @@
         <v>170.4029</v>
       </c>
       <c r="G26" t="n">
-        <v>-107865.2244</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
         <v>87.3</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1293,24 +1271,21 @@
         <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>-106865.2244</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
         <v>87.3</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1332,24 +1307,21 @@
         <v>304</v>
       </c>
       <c r="G28" t="n">
-        <v>-106865.2244</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1371,24 +1343,21 @@
         <v>9920.848900000001</v>
       </c>
       <c r="G29" t="n">
-        <v>-96944.37550000002</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1410,22 +1379,21 @@
         <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>-96844.37550000002</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1447,22 +1415,21 @@
         <v>1000</v>
       </c>
       <c r="G31" t="n">
-        <v>-96844.37550000002</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>87.7</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1484,22 +1451,19 @@
         <v>2130.9912</v>
       </c>
       <c r="G32" t="n">
-        <v>-96844.37550000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1521,22 +1485,21 @@
         <v>5.7</v>
       </c>
       <c r="G33" t="n">
-        <v>-96838.67550000003</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>87.7</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1558,22 +1521,19 @@
         <v>0.3828</v>
       </c>
       <c r="G34" t="n">
-        <v>-96839.05830000003</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1595,22 +1555,19 @@
         <v>5679.0969</v>
       </c>
       <c r="G35" t="n">
-        <v>-102518.1552</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1632,22 +1589,19 @@
         <v>3904.5362</v>
       </c>
       <c r="G36" t="n">
-        <v>-102518.1552</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1669,24 +1623,21 @@
         <v>1741.7503</v>
       </c>
       <c r="G37" t="n">
-        <v>-100776.4049</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
         <v>87.3</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,24 +1659,21 @@
         <v>842.989</v>
       </c>
       <c r="G38" t="n">
-        <v>-101619.3939</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
         <v>87.5</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1747,24 +1695,21 @@
         <v>2057.011</v>
       </c>
       <c r="G39" t="n">
-        <v>-101619.3939</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
         <v>86.5</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1786,24 +1731,21 @@
         <v>221.5</v>
       </c>
       <c r="G40" t="n">
-        <v>-101619.3939</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
         <v>86.5</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1825,24 +1767,21 @@
         <v>227.4800456100342</v>
       </c>
       <c r="G41" t="n">
-        <v>-101391.91385439</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
         <v>86.5</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1864,24 +1803,21 @@
         <v>185.7577</v>
       </c>
       <c r="G42" t="n">
-        <v>-101577.67155439</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
         <v>87.7</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1903,24 +1839,21 @@
         <v>14.2423</v>
       </c>
       <c r="G43" t="n">
-        <v>-101577.67155439</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1942,24 +1875,21 @@
         <v>6</v>
       </c>
       <c r="G44" t="n">
-        <v>-101571.67155439</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1981,24 +1911,21 @@
         <v>2189.860254389966</v>
       </c>
       <c r="G45" t="n">
-        <v>-101571.67155439</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
         <v>87.7</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2020,24 +1947,21 @@
         <v>5.7</v>
       </c>
       <c r="G46" t="n">
-        <v>-101565.97155439</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
         <v>87.7</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2059,24 +1983,21 @@
         <v>494.3</v>
       </c>
       <c r="G47" t="n">
-        <v>-101565.97155439</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
         <v>87.8</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2098,24 +2019,21 @@
         <v>11206.57630200445</v>
       </c>
       <c r="G48" t="n">
-        <v>-90359.39525238556</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
         <v>87.8</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2137,22 +2055,21 @@
         <v>360.1009</v>
       </c>
       <c r="G49" t="n">
-        <v>-90719.49615238556</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2174,22 +2091,21 @@
         <v>12431.563</v>
       </c>
       <c r="G50" t="n">
-        <v>-103151.0591523856</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>88.2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2211,22 +2127,21 @@
         <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>-103145.0591523856</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>87.8</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2248,22 +2163,19 @@
         <v>5852.584</v>
       </c>
       <c r="G52" t="n">
-        <v>-108997.6431523856</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2285,22 +2197,21 @@
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>-108897.6431523856</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2322,22 +2233,19 @@
         <v>1440.9052</v>
       </c>
       <c r="G54" t="n">
-        <v>-107456.7379523856</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2359,22 +2267,19 @@
         <v>773.8821</v>
       </c>
       <c r="G55" t="n">
-        <v>-108230.6200523856</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2396,22 +2301,19 @@
         <v>1.4926</v>
       </c>
       <c r="G56" t="n">
-        <v>-108230.6200523856</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2433,22 +2335,19 @@
         <v>10000</v>
       </c>
       <c r="G57" t="n">
-        <v>-98230.62005238557</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2470,22 +2369,19 @@
         <v>1156.5891</v>
       </c>
       <c r="G58" t="n">
-        <v>-99387.20915238556</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2507,22 +2403,19 @@
         <v>2095.6823</v>
       </c>
       <c r="G59" t="n">
-        <v>-97291.52685238556</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,22 +2437,19 @@
         <v>19645.5483</v>
       </c>
       <c r="G60" t="n">
-        <v>-97291.52685238556</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2581,22 +2471,19 @@
         <v>11484.0195</v>
       </c>
       <c r="G61" t="n">
-        <v>-97291.52685238556</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,22 +2505,19 @@
         <v>3517.3187</v>
       </c>
       <c r="G62" t="n">
-        <v>-97291.52685238556</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2655,22 +2539,19 @@
         <v>3289.8263</v>
       </c>
       <c r="G63" t="n">
-        <v>-97291.52685238556</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2692,22 +2573,19 @@
         <v>1000</v>
       </c>
       <c r="G64" t="n">
-        <v>-97291.52685238556</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2729,22 +2607,19 @@
         <v>6</v>
       </c>
       <c r="G65" t="n">
-        <v>-97285.52685238556</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2766,22 +2641,19 @@
         <v>2376.4317</v>
       </c>
       <c r="G66" t="n">
-        <v>-99661.95855238556</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2803,22 +2675,19 @@
         <v>3051.733</v>
       </c>
       <c r="G67" t="n">
-        <v>-96610.22555238556</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2840,22 +2709,21 @@
         <v>12772.3513</v>
       </c>
       <c r="G68" t="n">
-        <v>-96610.22555238556</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2877,22 +2745,21 @@
         <v>911.9327</v>
       </c>
       <c r="G69" t="n">
-        <v>-97522.15825238556</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2914,22 +2781,21 @@
         <v>5217.644291141573</v>
       </c>
       <c r="G70" t="n">
-        <v>-92304.51396124398</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2951,22 +2817,21 @@
         <v>630</v>
       </c>
       <c r="G71" t="n">
-        <v>-91674.51396124398</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2988,22 +2853,19 @@
         <v>3295.4345</v>
       </c>
       <c r="G72" t="n">
-        <v>-94969.94846124398</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3025,22 +2887,21 @@
         <v>1097.5509</v>
       </c>
       <c r="G73" t="n">
-        <v>-94969.94846124398</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>89.2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3062,22 +2923,21 @@
         <v>88</v>
       </c>
       <c r="G74" t="n">
-        <v>-94881.94846124398</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>89.2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3099,22 +2959,19 @@
         <v>372.0393</v>
       </c>
       <c r="G75" t="n">
-        <v>-95253.98776124399</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3136,22 +2993,21 @@
         <v>1260</v>
       </c>
       <c r="G76" t="n">
-        <v>-93993.98776124399</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3173,22 +3029,21 @@
         <v>3936.522547058823</v>
       </c>
       <c r="G77" t="n">
-        <v>-97930.51030830281</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>90.2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3210,22 +3065,21 @@
         <v>11699.80365294118</v>
       </c>
       <c r="G78" t="n">
-        <v>-97930.51030830281</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3247,22 +3101,19 @@
         <v>1183.3669</v>
       </c>
       <c r="G79" t="n">
-        <v>-96747.14340830281</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3284,22 +3135,19 @@
         <v>6</v>
       </c>
       <c r="G80" t="n">
-        <v>-96741.14340830281</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3321,22 +3169,19 @@
         <v>94</v>
       </c>
       <c r="G81" t="n">
-        <v>-96741.14340830281</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3358,22 +3203,19 @@
         <v>6</v>
       </c>
       <c r="G82" t="n">
-        <v>-96735.14340830281</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3395,22 +3237,19 @@
         <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>-96835.14340830281</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3432,22 +3271,19 @@
         <v>19591.0027</v>
       </c>
       <c r="G84" t="n">
-        <v>-96835.14340830281</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3469,22 +3305,19 @@
         <v>13203.9996359596</v>
       </c>
       <c r="G85" t="n">
-        <v>-83631.14377234322</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3506,22 +3339,19 @@
         <v>10000</v>
       </c>
       <c r="G86" t="n">
-        <v>-93631.14377234322</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3543,20 +3373,19 @@
         <v>251.341</v>
       </c>
       <c r="G87" t="n">
-        <v>-93882.48477234322</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
       </c>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3578,18 +3407,19 @@
         <v>304.2332</v>
       </c>
       <c r="G88" t="n">
-        <v>-94186.71797234322</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3611,18 +3441,17 @@
         <v>754.4056</v>
       </c>
       <c r="G89" t="n">
-        <v>-94941.12357234322</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3644,18 +3473,15 @@
         <v>6</v>
       </c>
       <c r="G90" t="n">
-        <v>-94935.12357234322</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3677,18 +3503,15 @@
         <v>500</v>
       </c>
       <c r="G91" t="n">
-        <v>-95435.12357234322</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3710,18 +3533,15 @@
         <v>500</v>
       </c>
       <c r="G92" t="n">
-        <v>-95935.12357234322</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3743,18 +3563,15 @@
         <v>6</v>
       </c>
       <c r="G93" t="n">
-        <v>-95929.12357234322</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3776,18 +3593,15 @@
         <v>736.4056</v>
       </c>
       <c r="G94" t="n">
-        <v>-95929.12357234322</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3809,18 +3623,15 @@
         <v>251.341</v>
       </c>
       <c r="G95" t="n">
-        <v>-96180.46457234322</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,18 +3653,15 @@
         <v>6</v>
       </c>
       <c r="G96" t="n">
-        <v>-96174.46457234322</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3875,18 +3683,15 @@
         <v>245.341</v>
       </c>
       <c r="G97" t="n">
-        <v>-96174.46457234322</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3908,18 +3713,15 @@
         <v>304.2332</v>
       </c>
       <c r="G98" t="n">
-        <v>-96174.46457234322</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3941,18 +3743,15 @@
         <v>500</v>
       </c>
       <c r="G99" t="n">
-        <v>-96174.46457234322</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3974,18 +3773,15 @@
         <v>1984.3566</v>
       </c>
       <c r="G100" t="n">
-        <v>-96174.46457234322</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4007,18 +3803,15 @@
         <v>6</v>
       </c>
       <c r="G101" t="n">
-        <v>-96168.46457234322</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4040,18 +3833,15 @@
         <v>2989.0125</v>
       </c>
       <c r="G102" t="n">
-        <v>-96168.46457234322</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4073,18 +3863,15 @@
         <v>7504.9875</v>
       </c>
       <c r="G103" t="n">
-        <v>-96168.46457234322</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4106,18 +3893,15 @@
         <v>6</v>
       </c>
       <c r="G104" t="n">
-        <v>-96162.46457234322</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4139,18 +3923,15 @@
         <v>50</v>
       </c>
       <c r="G105" t="n">
-        <v>-96162.46457234322</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4172,18 +3953,15 @@
         <v>73.864</v>
       </c>
       <c r="G106" t="n">
-        <v>-96236.32857234322</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4205,18 +3983,15 @@
         <v>122.4719</v>
       </c>
       <c r="G107" t="n">
-        <v>-96358.80047234322</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4238,18 +4013,15 @@
         <v>500</v>
       </c>
       <c r="G108" t="n">
-        <v>-96858.80047234322</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4271,18 +4043,15 @@
         <v>3206.971</v>
       </c>
       <c r="G109" t="n">
-        <v>-100065.7714723432</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4304,18 +4073,15 @@
         <v>19291.3333</v>
       </c>
       <c r="G110" t="n">
-        <v>-119357.1047723432</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4337,18 +4103,15 @@
         <v>6</v>
       </c>
       <c r="G111" t="n">
-        <v>-119351.1047723432</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4370,18 +4133,15 @@
         <v>6</v>
       </c>
       <c r="G112" t="n">
-        <v>-119345.1047723432</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4403,18 +4163,15 @@
         <v>19.4287</v>
       </c>
       <c r="G113" t="n">
-        <v>-119364.5334723432</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4436,18 +4193,15 @@
         <v>8</v>
       </c>
       <c r="G114" t="n">
-        <v>-119356.5334723432</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4469,18 +4223,15 @@
         <v>6</v>
       </c>
       <c r="G115" t="n">
-        <v>-119350.5334723432</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4502,18 +4253,15 @@
         <v>6</v>
       </c>
       <c r="G116" t="n">
-        <v>-119344.5334723432</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4535,18 +4283,15 @@
         <v>6</v>
       </c>
       <c r="G117" t="n">
-        <v>-119350.5334723432</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4568,18 +4313,15 @@
         <v>6</v>
       </c>
       <c r="G118" t="n">
-        <v>-119344.5334723432</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4601,18 +4343,15 @@
         <v>1443.7279</v>
       </c>
       <c r="G119" t="n">
-        <v>-120788.2613723432</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4634,18 +4373,15 @@
         <v>30</v>
       </c>
       <c r="G120" t="n">
-        <v>-120758.2613723432</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4667,18 +4403,15 @@
         <v>746.107</v>
       </c>
       <c r="G121" t="n">
-        <v>-120758.2613723432</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4700,18 +4433,15 @@
         <v>700</v>
       </c>
       <c r="G122" t="n">
-        <v>-120058.2613723432</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4733,18 +4463,15 @@
         <v>700</v>
       </c>
       <c r="G123" t="n">
-        <v>-120058.2613723432</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4766,18 +4493,15 @@
         <v>1014.2093</v>
       </c>
       <c r="G124" t="n">
-        <v>-119044.0520723432</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4799,18 +4523,15 @@
         <v>164.9291</v>
       </c>
       <c r="G125" t="n">
-        <v>-119044.0520723432</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4832,18 +4553,15 @@
         <v>28</v>
       </c>
       <c r="G126" t="n">
-        <v>-119072.0520723432</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4865,18 +4583,15 @@
         <v>577.7101</v>
       </c>
       <c r="G127" t="n">
-        <v>-119649.7621723432</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4898,18 +4613,15 @@
         <v>6.2645</v>
       </c>
       <c r="G128" t="n">
-        <v>-119643.4976723432</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4931,18 +4643,15 @@
         <v>6</v>
       </c>
       <c r="G129" t="n">
-        <v>-119637.4976723432</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4964,18 +4673,15 @@
         <v>3006</v>
       </c>
       <c r="G130" t="n">
-        <v>-116631.4976723432</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4997,18 +4703,15 @@
         <v>10.62699256110521</v>
       </c>
       <c r="G131" t="n">
-        <v>-116642.1246649043</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5030,18 +4733,15 @@
         <v>3462.6061</v>
       </c>
       <c r="G132" t="n">
-        <v>-120104.7307649043</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5063,18 +4763,15 @@
         <v>2581.1801</v>
       </c>
       <c r="G133" t="n">
-        <v>-122685.9108649043</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5096,18 +4793,15 @@
         <v>547.0864</v>
       </c>
       <c r="G134" t="n">
-        <v>-122685.9108649043</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5129,18 +4823,15 @@
         <v>8688.9503</v>
       </c>
       <c r="G135" t="n">
-        <v>-131374.8611649043</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5162,18 +4853,15 @@
         <v>5.7</v>
       </c>
       <c r="G136" t="n">
-        <v>-131369.1611649043</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5195,18 +4883,15 @@
         <v>17438.8257</v>
       </c>
       <c r="G137" t="n">
-        <v>-148807.9868649043</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5228,18 +4913,15 @@
         <v>7805.6672</v>
       </c>
       <c r="G138" t="n">
-        <v>-156613.6540649043</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5261,18 +4943,15 @@
         <v>29689.6886</v>
       </c>
       <c r="G139" t="n">
-        <v>-126923.9654649044</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5294,18 +4973,15 @@
         <v>3481.4218</v>
       </c>
       <c r="G140" t="n">
-        <v>-123442.5436649044</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5327,18 +5003,15 @@
         <v>1839.4522</v>
       </c>
       <c r="G141" t="n">
-        <v>-121603.0914649044</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5360,18 +5033,15 @@
         <v>2.7</v>
       </c>
       <c r="G142" t="n">
-        <v>-121605.7914649044</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5393,18 +5063,15 @@
         <v>6</v>
       </c>
       <c r="G143" t="n">
-        <v>-121611.7914649044</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5426,18 +5093,15 @@
         <v>3</v>
       </c>
       <c r="G144" t="n">
-        <v>-121608.7914649044</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5459,18 +5123,15 @@
         <v>10972.6744</v>
       </c>
       <c r="G145" t="n">
-        <v>-132581.4658649043</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5492,18 +5153,15 @@
         <v>9695.1247</v>
       </c>
       <c r="G146" t="n">
-        <v>-122886.3411649043</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5525,18 +5183,15 @@
         <v>8697.367899999999</v>
       </c>
       <c r="G147" t="n">
-        <v>-131583.7090649043</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5558,18 +5213,15 @@
         <v>6</v>
       </c>
       <c r="G148" t="n">
-        <v>-131577.7090649043</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5591,18 +5243,15 @@
         <v>7695.5314</v>
       </c>
       <c r="G149" t="n">
-        <v>-139273.2404649043</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5624,18 +5273,15 @@
         <v>5276.0174</v>
       </c>
       <c r="G150" t="n">
-        <v>-144549.2578649044</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5657,18 +5303,15 @@
         <v>6</v>
       </c>
       <c r="G151" t="n">
-        <v>-144543.2578649044</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
